--- a/ch5-databases/res/pets.xlsx
+++ b/ch5-databases/res/pets.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\computer-apps-primer\ch5-databases\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\GitHub\computer-apps-primer\ch5-databases\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>Hardy</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>PetName</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
@@ -801,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,759 +818,1665 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>9</v>
+      </c>
+      <c r="C137">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>132</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/ch5-databases/res/pets.xlsx
+++ b/ch5-databases/res/pets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
   <si>
     <t>Hardy</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Birthday</t>
   </si>
 </sst>
 </file>
@@ -488,9 +494,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
@@ -807,1675 +816,2732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="2">
+        <f ca="1">RANDBETWEEN(DATE(2000,1,1),DATE(2017,3,15))</f>
+        <v>42171</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(DATE(2000,1,1),DATE(2017,3,15))</f>
+        <v>40774</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40884</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39640</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37408</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40423</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36751</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36980</v>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39193</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40420</v>
+      </c>
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37400</v>
+      </c>
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40981</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>41531</v>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39075</v>
+      </c>
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>41634</v>
+      </c>
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38924</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39586</v>
+      </c>
+      <c r="D18">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38110</v>
+      </c>
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36892</v>
+      </c>
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36727</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="C22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36928</v>
+      </c>
+      <c r="D22">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="C23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38122</v>
+      </c>
+      <c r="D23">
         <v>9</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40659</v>
+      </c>
+      <c r="D24">
         <v>9</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="C25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40415</v>
+      </c>
+      <c r="D25">
         <v>7</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="C26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37892</v>
+      </c>
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="C27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>42759</v>
+      </c>
+      <c r="D27">
         <v>8</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="C28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37786</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="C29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36731</v>
+      </c>
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B30">
+      <c r="C30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37521</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="C31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39972</v>
+      </c>
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="C32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39536</v>
+      </c>
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="C33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38376</v>
+      </c>
+      <c r="D33">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34">
+      <c r="C34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>42685</v>
+      </c>
+      <c r="D34">
         <v>9</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="C35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40120</v>
+      </c>
+      <c r="D35">
         <v>9</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="C36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37444</v>
+      </c>
+      <c r="D36">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="C37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36935</v>
+      </c>
+      <c r="D37">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="C38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39399</v>
+      </c>
+      <c r="D38">
         <v>7</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="C39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38613</v>
+      </c>
+      <c r="D39">
         <v>9</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="C40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38656</v>
+      </c>
+      <c r="D40">
         <v>7</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="C41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39408</v>
+      </c>
+      <c r="D41">
         <v>7</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="C42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>41629</v>
+      </c>
+      <c r="D42">
         <v>8</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="C43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37837</v>
+      </c>
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="C44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38438</v>
+      </c>
+      <c r="D44">
         <v>8</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="C45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38364</v>
+      </c>
+      <c r="D45">
         <v>7</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="C46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39473</v>
+      </c>
+      <c r="D46">
         <v>6</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="C47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36640</v>
+      </c>
+      <c r="D47">
         <v>7</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="C48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37697</v>
+      </c>
+      <c r="D48">
         <v>1</v>
       </c>
-      <c r="C48">
+      <c r="E48">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="C49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36712</v>
+      </c>
+      <c r="D49">
         <v>9</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="C50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>41011</v>
+      </c>
+      <c r="D50">
         <v>6</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="C51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37922</v>
+      </c>
+      <c r="D51">
         <v>7</v>
       </c>
-      <c r="C51">
+      <c r="E51">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B52">
+      <c r="C52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>42302</v>
+      </c>
+      <c r="D52">
         <v>6</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="C53" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>41298</v>
+      </c>
+      <c r="D53">
         <v>8</v>
       </c>
-      <c r="C53">
+      <c r="E53">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="C54" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39183</v>
+      </c>
+      <c r="D54">
         <v>9</v>
       </c>
-      <c r="C54">
+      <c r="E54">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="C55" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39345</v>
+      </c>
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="C55">
+      <c r="E55">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B56">
+      <c r="C56" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39993</v>
+      </c>
+      <c r="D56">
         <v>2</v>
       </c>
-      <c r="C56">
+      <c r="E56">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B57">
+      <c r="C57" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36663</v>
+      </c>
+      <c r="D57">
         <v>2</v>
       </c>
-      <c r="C57">
+      <c r="E57">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B58">
+      <c r="C58" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37249</v>
+      </c>
+      <c r="D58">
         <v>5</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B59">
+      <c r="C59" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40794</v>
+      </c>
+      <c r="D59">
         <v>3</v>
       </c>
-      <c r="C59">
+      <c r="E59">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B60">
+      <c r="C60" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>41420</v>
+      </c>
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="C60">
+      <c r="E60">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B61">
+      <c r="C61" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>41624</v>
+      </c>
+      <c r="D61">
         <v>2</v>
       </c>
-      <c r="C61">
+      <c r="E61">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B62">
+      <c r="C62" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37277</v>
+      </c>
+      <c r="D62">
         <v>9</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="C63" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>41446</v>
+      </c>
+      <c r="D63">
         <v>7</v>
       </c>
-      <c r="C63">
+      <c r="E63">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B64">
+      <c r="C64" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>41478</v>
+      </c>
+      <c r="D64">
         <v>8</v>
       </c>
-      <c r="C64">
+      <c r="E64">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B65">
+      <c r="C65" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>41444</v>
+      </c>
+      <c r="D65">
         <v>8</v>
       </c>
-      <c r="C65">
+      <c r="E65">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B66">
+      <c r="C66" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>42610</v>
+      </c>
+      <c r="D66">
         <v>1</v>
       </c>
-      <c r="C66">
+      <c r="E66">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B67">
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C130" ca="1" si="1">RANDBETWEEN(DATE(2000,1,1),DATE(2017,3,15))</f>
+        <v>38133</v>
+      </c>
+      <c r="D67">
         <v>4</v>
       </c>
-      <c r="C67">
+      <c r="E67">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B68">
+      <c r="C68" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41627</v>
+      </c>
+      <c r="D68">
         <v>7</v>
       </c>
-      <c r="C68">
+      <c r="E68">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B69">
+      <c r="C69" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42018</v>
+      </c>
+      <c r="D69">
         <v>4</v>
       </c>
-      <c r="C69">
+      <c r="E69">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B70">
+      <c r="C70" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39707</v>
+      </c>
+      <c r="D70">
         <v>5</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B71">
+      <c r="C71" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41368</v>
+      </c>
+      <c r="D71">
         <v>5</v>
       </c>
-      <c r="C71">
+      <c r="E71">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B72">
+      <c r="C72" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37711</v>
+      </c>
+      <c r="D72">
         <v>6</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B73">
+      <c r="C73" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41603</v>
+      </c>
+      <c r="D73">
         <v>1</v>
       </c>
-      <c r="C73">
+      <c r="E73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B74">
+      <c r="C74" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36546</v>
+      </c>
+      <c r="D74">
         <v>6</v>
       </c>
-      <c r="C74">
+      <c r="E74">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B75">
+      <c r="C75" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>38346</v>
+      </c>
+      <c r="D75">
         <v>1</v>
       </c>
-      <c r="C75">
+      <c r="E75">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B76">
+      <c r="C76" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37605</v>
+      </c>
+      <c r="D76">
         <v>1</v>
       </c>
-      <c r="C76">
+      <c r="E76">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B77">
+      <c r="C77" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40211</v>
+      </c>
+      <c r="D77">
         <v>3</v>
       </c>
-      <c r="C77">
+      <c r="E77">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B78">
+      <c r="C78" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42462</v>
+      </c>
+      <c r="D78">
         <v>3</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B79">
+      <c r="C79" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36604</v>
+      </c>
+      <c r="D79">
         <v>1</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B80">
+      <c r="C80" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37707</v>
+      </c>
+      <c r="D80">
         <v>3</v>
       </c>
-      <c r="C80">
+      <c r="E80">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B81">
+      <c r="C81" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42582</v>
+      </c>
+      <c r="D81">
         <v>8</v>
       </c>
-      <c r="C81">
+      <c r="E81">
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B82">
+      <c r="C82" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37426</v>
+      </c>
+      <c r="D82">
         <v>7</v>
       </c>
-      <c r="C82">
+      <c r="E82">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B83">
+      <c r="C83" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41213</v>
+      </c>
+      <c r="D83">
         <v>8</v>
       </c>
-      <c r="C83">
+      <c r="E83">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B84">
+      <c r="C84" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39017</v>
+      </c>
+      <c r="D84">
         <v>9</v>
       </c>
-      <c r="C84">
+      <c r="E84">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B85">
+      <c r="C85" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>38766</v>
+      </c>
+      <c r="D85">
         <v>6</v>
       </c>
-      <c r="C85">
+      <c r="E85">
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B86">
+      <c r="C86" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39220</v>
+      </c>
+      <c r="D86">
         <v>2</v>
       </c>
-      <c r="C86">
+      <c r="E86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B87">
+      <c r="C87" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>38008</v>
+      </c>
+      <c r="D87">
         <v>1</v>
       </c>
-      <c r="C87">
+      <c r="E87">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B88">
+      <c r="C88" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36848</v>
+      </c>
+      <c r="D88">
         <v>3</v>
       </c>
-      <c r="C88">
+      <c r="E88">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B89">
+      <c r="C89" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42717</v>
+      </c>
+      <c r="D89">
         <v>7</v>
       </c>
-      <c r="C89">
+      <c r="E89">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B90">
+      <c r="C90" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36558</v>
+      </c>
+      <c r="D90">
         <v>9</v>
       </c>
-      <c r="C90">
+      <c r="E90">
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B91">
+      <c r="C91" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37850</v>
+      </c>
+      <c r="D91">
         <v>1</v>
       </c>
-      <c r="C91">
+      <c r="E91">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B92">
+      <c r="C92" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36813</v>
+      </c>
+      <c r="D92">
         <v>8</v>
       </c>
-      <c r="C92">
+      <c r="E92">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B93">
+      <c r="C93" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>38707</v>
+      </c>
+      <c r="D93">
         <v>7</v>
       </c>
-      <c r="C93">
+      <c r="E93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B94">
+      <c r="C94" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42524</v>
+      </c>
+      <c r="D94">
         <v>1</v>
       </c>
-      <c r="C94">
+      <c r="E94">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B95">
+      <c r="C95" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40501</v>
+      </c>
+      <c r="D95">
         <v>8</v>
       </c>
-      <c r="C95">
+      <c r="E95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B96">
+      <c r="C96" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40008</v>
+      </c>
+      <c r="D96">
         <v>9</v>
       </c>
-      <c r="C96">
+      <c r="E96">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B97">
+      <c r="C97" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41406</v>
+      </c>
+      <c r="D97">
         <v>5</v>
       </c>
-      <c r="C97">
+      <c r="E97">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B98">
+      <c r="C98" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40435</v>
+      </c>
+      <c r="D98">
         <v>4</v>
       </c>
-      <c r="C98">
+      <c r="E98">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B99">
+      <c r="C99" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42124</v>
+      </c>
+      <c r="D99">
         <v>6</v>
       </c>
-      <c r="C99">
+      <c r="E99">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B100">
+      <c r="C100" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36772</v>
+      </c>
+      <c r="D100">
         <v>3</v>
       </c>
-      <c r="C100">
+      <c r="E100">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B101">
+      <c r="C101" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42568</v>
+      </c>
+      <c r="D101">
         <v>1</v>
       </c>
-      <c r="C101">
+      <c r="E101">
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B102">
+      <c r="C102" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40463</v>
+      </c>
+      <c r="D102">
         <v>3</v>
       </c>
-      <c r="C102">
+      <c r="E102">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B103">
+      <c r="C103" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41587</v>
+      </c>
+      <c r="D103">
         <v>5</v>
       </c>
-      <c r="C103">
+      <c r="E103">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B104">
+      <c r="C104" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>38216</v>
+      </c>
+      <c r="D104">
         <v>8</v>
       </c>
-      <c r="C104">
+      <c r="E104">
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B105">
+      <c r="C105" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39635</v>
+      </c>
+      <c r="D105">
         <v>9</v>
       </c>
-      <c r="C105">
+      <c r="E105">
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B106">
+      <c r="C106" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39644</v>
+      </c>
+      <c r="D106">
         <v>9</v>
       </c>
-      <c r="C106">
+      <c r="E106">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B107">
+      <c r="C107" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37438</v>
+      </c>
+      <c r="D107">
         <v>1</v>
       </c>
-      <c r="C107">
+      <c r="E107">
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B108">
+      <c r="C108" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39333</v>
+      </c>
+      <c r="D108">
         <v>2</v>
       </c>
-      <c r="C108">
+      <c r="E108">
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B109">
+      <c r="C109" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39671</v>
+      </c>
+      <c r="D109">
         <v>3</v>
       </c>
-      <c r="C109">
+      <c r="E109">
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B110">
+      <c r="C110" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39415</v>
+      </c>
+      <c r="D110">
         <v>3</v>
       </c>
-      <c r="C110">
+      <c r="E110">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B111">
+      <c r="C111" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42555</v>
+      </c>
+      <c r="D111">
         <v>2</v>
       </c>
-      <c r="C111">
+      <c r="E111">
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B112">
+      <c r="C112" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41654</v>
+      </c>
+      <c r="D112">
         <v>2</v>
       </c>
-      <c r="C112">
+      <c r="E112">
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B113">
+      <c r="C113" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>38804</v>
+      </c>
+      <c r="D113">
         <v>1</v>
       </c>
-      <c r="C113">
+      <c r="E113">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B114">
+      <c r="C114" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39071</v>
+      </c>
+      <c r="D114">
         <v>7</v>
       </c>
-      <c r="C114">
+      <c r="E114">
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B115">
+      <c r="C115" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42505</v>
+      </c>
+      <c r="D115">
         <v>4</v>
       </c>
-      <c r="C115">
+      <c r="E115">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B116">
+      <c r="C116" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40459</v>
+      </c>
+      <c r="D116">
         <v>8</v>
       </c>
-      <c r="C116">
+      <c r="E116">
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B117">
+      <c r="C117" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>38933</v>
+      </c>
+      <c r="D117">
         <v>4</v>
       </c>
-      <c r="C117">
+      <c r="E117">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B118">
+      <c r="C118" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42437</v>
+      </c>
+      <c r="D118">
         <v>4</v>
       </c>
-      <c r="C118">
+      <c r="E118">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B119">
+      <c r="C119" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41506</v>
+      </c>
+      <c r="D119">
         <v>7</v>
       </c>
-      <c r="C119">
+      <c r="E119">
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B120">
+      <c r="C120" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40447</v>
+      </c>
+      <c r="D120">
         <v>2</v>
       </c>
-      <c r="C120">
+      <c r="E120">
         <v>87</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B121">
+      <c r="C121" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41035</v>
+      </c>
+      <c r="D121">
         <v>3</v>
       </c>
-      <c r="C121">
+      <c r="E121">
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B122">
+      <c r="C122" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39847</v>
+      </c>
+      <c r="D122">
         <v>8</v>
       </c>
-      <c r="C122">
+      <c r="E122">
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B123">
+      <c r="C123" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40014</v>
+      </c>
+      <c r="D123">
         <v>3</v>
       </c>
-      <c r="C123">
+      <c r="E123">
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B124">
+      <c r="C124" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39232</v>
+      </c>
+      <c r="D124">
         <v>3</v>
       </c>
-      <c r="C124">
+      <c r="E124">
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B125">
+      <c r="C125" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42139</v>
+      </c>
+      <c r="D125">
         <v>5</v>
       </c>
-      <c r="C125">
+      <c r="E125">
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B126">
+      <c r="C126" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>38738</v>
+      </c>
+      <c r="D126">
         <v>9</v>
       </c>
-      <c r="C126">
+      <c r="E126">
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B127">
+      <c r="C127" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40069</v>
+      </c>
+      <c r="D127">
         <v>8</v>
       </c>
-      <c r="C127">
+      <c r="E127">
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B128">
+      <c r="C128" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36887</v>
+      </c>
+      <c r="D128">
         <v>3</v>
       </c>
-      <c r="C128">
+      <c r="E128">
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B129">
+      <c r="C129" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41913</v>
+      </c>
+      <c r="D129">
         <v>9</v>
       </c>
-      <c r="C129">
+      <c r="E129">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B130">
+      <c r="C130" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36533</v>
+      </c>
+      <c r="D130">
         <v>7</v>
       </c>
-      <c r="C130">
+      <c r="E130">
         <v>57</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B131">
+      <c r="C131" s="2">
+        <f t="shared" ref="C131:C151" ca="1" si="2">RANDBETWEEN(DATE(2000,1,1),DATE(2017,3,15))</f>
+        <v>40052</v>
+      </c>
+      <c r="D131">
         <v>8</v>
       </c>
-      <c r="C131">
+      <c r="E131">
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B132">
+      <c r="C132" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>40029</v>
+      </c>
+      <c r="D132">
         <v>1</v>
       </c>
-      <c r="C132">
+      <c r="E132">
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B133">
+      <c r="C133" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>38010</v>
+      </c>
+      <c r="D133">
         <v>1</v>
       </c>
-      <c r="C133">
+      <c r="E133">
         <v>78</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B134">
+      <c r="C134" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>40694</v>
+      </c>
+      <c r="D134">
         <v>6</v>
       </c>
-      <c r="C134">
+      <c r="E134">
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B135">
+      <c r="C135" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>37596</v>
+      </c>
+      <c r="D135">
         <v>3</v>
       </c>
-      <c r="C135">
+      <c r="E135">
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B136">
+      <c r="C136" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>38348</v>
+      </c>
+      <c r="D136">
         <v>6</v>
       </c>
-      <c r="C136">
+      <c r="E136">
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B137">
+      <c r="C137" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>37893</v>
+      </c>
+      <c r="D137">
         <v>9</v>
       </c>
-      <c r="C137">
+      <c r="E137">
         <v>56</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B138">
+      <c r="C138" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>39670</v>
+      </c>
+      <c r="D138">
         <v>5</v>
       </c>
-      <c r="C138">
+      <c r="E138">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B139">
+      <c r="C139" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>38530</v>
+      </c>
+      <c r="D139">
         <v>2</v>
       </c>
-      <c r="C139">
+      <c r="E139">
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B140">
+      <c r="C140" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>39975</v>
+      </c>
+      <c r="D140">
         <v>4</v>
       </c>
-      <c r="C140">
+      <c r="E140">
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B141">
+      <c r="C141" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>42596</v>
+      </c>
+      <c r="D141">
         <v>1</v>
       </c>
-      <c r="C141">
+      <c r="E141">
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B142">
+      <c r="C142" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>36994</v>
+      </c>
+      <c r="D142">
         <v>5</v>
       </c>
-      <c r="C142">
+      <c r="E142">
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B143">
+      <c r="C143" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>40260</v>
+      </c>
+      <c r="D143">
         <v>8</v>
       </c>
-      <c r="C143">
+      <c r="E143">
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B144">
+      <c r="C144" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>37669</v>
+      </c>
+      <c r="D144">
         <v>2</v>
       </c>
-      <c r="C144">
+      <c r="E144">
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B145">
+      <c r="C145" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>42752</v>
+      </c>
+      <c r="D145">
         <v>4</v>
       </c>
-      <c r="C145">
+      <c r="E145">
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B146">
+      <c r="C146" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>39786</v>
+      </c>
+      <c r="D146">
         <v>8</v>
       </c>
-      <c r="C146">
+      <c r="E146">
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B147">
+      <c r="C147" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>36768</v>
+      </c>
+      <c r="D147">
         <v>3</v>
       </c>
-      <c r="C147">
+      <c r="E147">
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B148">
+      <c r="C148" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>42144</v>
+      </c>
+      <c r="D148">
         <v>4</v>
       </c>
-      <c r="C148">
+      <c r="E148">
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B149">
+      <c r="C149" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>40485</v>
+      </c>
+      <c r="D149">
         <v>3</v>
       </c>
-      <c r="C149">
+      <c r="E149">
         <v>77</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B150">
+      <c r="C150" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>38883</v>
+      </c>
+      <c r="D150">
         <v>9</v>
       </c>
-      <c r="C150">
+      <c r="E150">
         <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B151">
+      <c r="C151" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>42482</v>
+      </c>
+      <c r="D151">
         <v>6</v>
       </c>
-      <c r="C151">
+      <c r="E151">
         <v>82</v>
       </c>
     </row>

--- a/ch5-databases/res/pets.xlsx
+++ b/ch5-databases/res/pets.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pets" sheetId="1" r:id="rId1"/>
+    <sheet name="Visits" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
   <si>
     <t>Hardy</t>
   </si>
@@ -438,6 +439,18 @@
   </si>
   <si>
     <t>Birthday</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>WalkIn</t>
+  </si>
+  <si>
+    <t>VisitDate</t>
   </si>
 </sst>
 </file>
@@ -494,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -502,6 +515,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,8 +867,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">RANDBETWEEN(DATE(2000,1,1),DATE(2017,3,15))</f>
-        <v>42171</v>
+        <v>40390</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -871,8 +884,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(DATE(2000,1,1),DATE(2017,3,15))</f>
-        <v>40774</v>
+        <v>38179</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -889,8 +901,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>40884</v>
+        <v>40902</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -907,8 +918,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39640</v>
+        <v>40370</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -925,8 +935,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37408</v>
+        <v>42681</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -943,8 +952,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>40423</v>
+        <v>42640</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -961,8 +969,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36751</v>
+        <v>40371</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -979,8 +986,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36980</v>
+        <v>39260</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -997,8 +1003,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39193</v>
+        <v>37309</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1015,8 +1020,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>40420</v>
+        <v>40605</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1033,8 +1037,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37400</v>
+        <v>42550</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1051,8 +1054,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>40981</v>
+        <v>38358</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1069,8 +1071,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>41531</v>
+        <v>40265</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1087,8 +1088,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39075</v>
+        <v>39494</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1105,8 +1105,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>41634</v>
+        <v>42263</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1123,8 +1122,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38924</v>
+        <v>37468</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1141,8 +1139,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39586</v>
+        <v>40113</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -1159,8 +1156,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38110</v>
+        <v>38735</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1177,8 +1173,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36892</v>
+        <v>38550</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1195,8 +1190,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36727</v>
+        <v>40794</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1213,8 +1207,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36928</v>
+        <v>42403</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -1231,8 +1224,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38122</v>
+        <v>42783</v>
       </c>
       <c r="D23">
         <v>9</v>
@@ -1249,8 +1241,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>40659</v>
+        <v>39672</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -1267,8 +1258,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>40415</v>
+        <v>39456</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -1285,8 +1275,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37892</v>
+        <v>37768</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1303,8 +1292,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>42759</v>
+        <v>37292</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -1321,8 +1309,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37786</v>
+        <v>36782</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -1339,8 +1326,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36731</v>
+        <v>42768</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1357,8 +1343,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37521</v>
+        <v>39968</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1375,8 +1360,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39972</v>
+        <v>38909</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1393,8 +1377,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39536</v>
+        <v>40558</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1411,8 +1394,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38376</v>
+        <v>36625</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1429,8 +1411,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>42685</v>
+        <v>37139</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -1447,8 +1428,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>40120</v>
+        <v>42305</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -1465,8 +1445,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37444</v>
+        <v>38042</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -1483,8 +1462,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36935</v>
+        <v>38439</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -1501,8 +1479,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39399</v>
+        <v>37756</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -1519,8 +1496,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38613</v>
+        <v>40003</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -1537,8 +1513,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38656</v>
+        <v>39015</v>
       </c>
       <c r="D40">
         <v>7</v>
@@ -1555,8 +1530,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39408</v>
+        <v>40363</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -1573,8 +1547,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>41629</v>
+        <v>41362</v>
       </c>
       <c r="D42">
         <v>8</v>
@@ -1591,8 +1564,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37837</v>
+        <v>37873</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1609,8 +1581,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38438</v>
+        <v>42169</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -1627,8 +1598,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38364</v>
+        <v>38016</v>
       </c>
       <c r="D45">
         <v>7</v>
@@ -1645,8 +1615,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39473</v>
+        <v>42536</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -1663,8 +1632,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36640</v>
+        <v>36903</v>
       </c>
       <c r="D47">
         <v>7</v>
@@ -1681,8 +1649,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37697</v>
+        <v>37722</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1699,8 +1666,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36712</v>
+        <v>36652</v>
       </c>
       <c r="D49">
         <v>9</v>
@@ -1717,8 +1683,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>41011</v>
+        <v>38695</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -1735,8 +1700,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37922</v>
+        <v>38544</v>
       </c>
       <c r="D51">
         <v>7</v>
@@ -1753,8 +1717,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>42302</v>
+        <v>42760</v>
       </c>
       <c r="D52">
         <v>6</v>
@@ -1771,8 +1734,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>41298</v>
+        <v>39218</v>
       </c>
       <c r="D53">
         <v>8</v>
@@ -1789,8 +1751,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39183</v>
+        <v>39319</v>
       </c>
       <c r="D54">
         <v>9</v>
@@ -1807,8 +1768,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39345</v>
+        <v>40419</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -1825,8 +1785,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39993</v>
+        <v>36929</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -1843,8 +1802,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36663</v>
+        <v>40709</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -1861,8 +1819,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37249</v>
+        <v>38457</v>
       </c>
       <c r="D58">
         <v>5</v>
@@ -1879,8 +1836,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>40794</v>
+        <v>37068</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -1897,8 +1853,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>41420</v>
+        <v>37063</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -1915,8 +1870,7 @@
         <v>58</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>41624</v>
+        <v>36610</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1933,8 +1887,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37277</v>
+        <v>41120</v>
       </c>
       <c r="D62">
         <v>9</v>
@@ -1951,8 +1904,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>41446</v>
+        <v>36978</v>
       </c>
       <c r="D63">
         <v>7</v>
@@ -1969,8 +1921,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>41478</v>
+        <v>38005</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -1987,8 +1938,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>41444</v>
+        <v>39093</v>
       </c>
       <c r="D65">
         <v>8</v>
@@ -2005,8 +1955,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>42610</v>
+        <v>38236</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2023,8 +1972,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:C130" ca="1" si="1">RANDBETWEEN(DATE(2000,1,1),DATE(2017,3,15))</f>
-        <v>38133</v>
+        <v>39270</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -2041,8 +1989,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41627</v>
+        <v>37660</v>
       </c>
       <c r="D68">
         <v>7</v>
@@ -2059,8 +2006,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42018</v>
+        <v>42554</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -2077,8 +2023,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39707</v>
+        <v>36827</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -2095,8 +2040,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41368</v>
+        <v>37899</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -2113,8 +2057,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37711</v>
+        <v>39187</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -2131,8 +2074,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41603</v>
+        <v>38781</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2149,8 +2091,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>36546</v>
+        <v>37674</v>
       </c>
       <c r="D74">
         <v>6</v>
@@ -2167,8 +2108,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>38346</v>
+        <v>37815</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2185,8 +2125,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37605</v>
+        <v>39047</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2203,8 +2142,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40211</v>
+        <v>40404</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -2221,8 +2159,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42462</v>
+        <v>37571</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -2239,8 +2176,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>36604</v>
+        <v>37477</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2257,8 +2193,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37707</v>
+        <v>39893</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -2275,8 +2210,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42582</v>
+        <v>39242</v>
       </c>
       <c r="D81">
         <v>8</v>
@@ -2293,8 +2227,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37426</v>
+        <v>37914</v>
       </c>
       <c r="D82">
         <v>7</v>
@@ -2311,8 +2244,7 @@
         <v>55</v>
       </c>
       <c r="C83" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41213</v>
+        <v>37675</v>
       </c>
       <c r="D83">
         <v>8</v>
@@ -2329,8 +2261,7 @@
         <v>80</v>
       </c>
       <c r="C84" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39017</v>
+        <v>40885</v>
       </c>
       <c r="D84">
         <v>9</v>
@@ -2347,8 +2278,7 @@
         <v>81</v>
       </c>
       <c r="C85" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>38766</v>
+        <v>42006</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -2365,8 +2295,7 @@
         <v>82</v>
       </c>
       <c r="C86" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39220</v>
+        <v>38368</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -2383,8 +2312,7 @@
         <v>83</v>
       </c>
       <c r="C87" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>38008</v>
+        <v>41412</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2401,8 +2329,7 @@
         <v>84</v>
       </c>
       <c r="C88" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>36848</v>
+        <v>41941</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -2419,8 +2346,7 @@
         <v>85</v>
       </c>
       <c r="C89" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42717</v>
+        <v>41900</v>
       </c>
       <c r="D89">
         <v>7</v>
@@ -2437,8 +2363,7 @@
         <v>86</v>
       </c>
       <c r="C90" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>36558</v>
+        <v>40574</v>
       </c>
       <c r="D90">
         <v>9</v>
@@ -2455,8 +2380,7 @@
         <v>87</v>
       </c>
       <c r="C91" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37850</v>
+        <v>39329</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2473,8 +2397,7 @@
         <v>88</v>
       </c>
       <c r="C92" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>36813</v>
+        <v>37994</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -2491,8 +2414,7 @@
         <v>89</v>
       </c>
       <c r="C93" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>38707</v>
+        <v>37148</v>
       </c>
       <c r="D93">
         <v>7</v>
@@ -2509,8 +2431,7 @@
         <v>90</v>
       </c>
       <c r="C94" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42524</v>
+        <v>38698</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -2527,8 +2448,7 @@
         <v>91</v>
       </c>
       <c r="C95" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40501</v>
+        <v>38312</v>
       </c>
       <c r="D95">
         <v>8</v>
@@ -2545,8 +2465,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40008</v>
+        <v>40592</v>
       </c>
       <c r="D96">
         <v>9</v>
@@ -2563,8 +2482,7 @@
         <v>93</v>
       </c>
       <c r="C97" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41406</v>
+        <v>36707</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -2581,8 +2499,7 @@
         <v>94</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40435</v>
+        <v>40775</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -2599,8 +2516,7 @@
         <v>95</v>
       </c>
       <c r="C99" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42124</v>
+        <v>38912</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -2617,8 +2533,7 @@
         <v>96</v>
       </c>
       <c r="C100" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>36772</v>
+        <v>42343</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2635,8 +2550,7 @@
         <v>97</v>
       </c>
       <c r="C101" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42568</v>
+        <v>41733</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2653,8 +2567,7 @@
         <v>98</v>
       </c>
       <c r="C102" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40463</v>
+        <v>41764</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -2671,8 +2584,7 @@
         <v>99</v>
       </c>
       <c r="C103" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41587</v>
+        <v>38034</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -2689,8 +2601,7 @@
         <v>100</v>
       </c>
       <c r="C104" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>38216</v>
+        <v>40162</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -2707,8 +2618,7 @@
         <v>101</v>
       </c>
       <c r="C105" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39635</v>
+        <v>38512</v>
       </c>
       <c r="D105">
         <v>9</v>
@@ -2725,8 +2635,7 @@
         <v>102</v>
       </c>
       <c r="C106" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39644</v>
+        <v>37508</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2743,8 +2652,7 @@
         <v>103</v>
       </c>
       <c r="C107" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37438</v>
+        <v>40056</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2761,8 +2669,7 @@
         <v>104</v>
       </c>
       <c r="C108" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39333</v>
+        <v>39349</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -2779,8 +2686,7 @@
         <v>105</v>
       </c>
       <c r="C109" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39671</v>
+        <v>42445</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -2797,8 +2703,7 @@
         <v>106</v>
       </c>
       <c r="C110" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39415</v>
+        <v>36578</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -2815,8 +2720,7 @@
         <v>107</v>
       </c>
       <c r="C111" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42555</v>
+        <v>37434</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -2833,8 +2737,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41654</v>
+        <v>40195</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -2851,8 +2754,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>38804</v>
+        <v>40578</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2869,8 +2771,7 @@
         <v>110</v>
       </c>
       <c r="C114" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39071</v>
+        <v>41595</v>
       </c>
       <c r="D114">
         <v>7</v>
@@ -2887,8 +2788,7 @@
         <v>111</v>
       </c>
       <c r="C115" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42505</v>
+        <v>37351</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -2905,8 +2805,7 @@
         <v>112</v>
       </c>
       <c r="C116" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40459</v>
+        <v>40582</v>
       </c>
       <c r="D116">
         <v>8</v>
@@ -2923,8 +2822,7 @@
         <v>113</v>
       </c>
       <c r="C117" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>38933</v>
+        <v>41738</v>
       </c>
       <c r="D117">
         <v>4</v>
@@ -2941,8 +2839,7 @@
         <v>114</v>
       </c>
       <c r="C118" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42437</v>
+        <v>37451</v>
       </c>
       <c r="D118">
         <v>4</v>
@@ -2959,8 +2856,7 @@
         <v>115</v>
       </c>
       <c r="C119" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41506</v>
+        <v>41954</v>
       </c>
       <c r="D119">
         <v>7</v>
@@ -2977,8 +2873,7 @@
         <v>116</v>
       </c>
       <c r="C120" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40447</v>
+        <v>38541</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -2995,8 +2890,7 @@
         <v>117</v>
       </c>
       <c r="C121" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41035</v>
+        <v>39720</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -3013,8 +2907,7 @@
         <v>118</v>
       </c>
       <c r="C122" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39847</v>
+        <v>42772</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -3031,8 +2924,7 @@
         <v>119</v>
       </c>
       <c r="C123" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40014</v>
+        <v>39910</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -3049,8 +2941,7 @@
         <v>120</v>
       </c>
       <c r="C124" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>39232</v>
+        <v>41998</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -3067,8 +2958,7 @@
         <v>121</v>
       </c>
       <c r="C125" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42139</v>
+        <v>39594</v>
       </c>
       <c r="D125">
         <v>5</v>
@@ -3085,8 +2975,7 @@
         <v>122</v>
       </c>
       <c r="C126" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>38738</v>
+        <v>37803</v>
       </c>
       <c r="D126">
         <v>9</v>
@@ -3103,8 +2992,7 @@
         <v>123</v>
       </c>
       <c r="C127" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40069</v>
+        <v>41309</v>
       </c>
       <c r="D127">
         <v>8</v>
@@ -3121,8 +3009,7 @@
         <v>124</v>
       </c>
       <c r="C128" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>36887</v>
+        <v>37802</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -3139,8 +3026,7 @@
         <v>125</v>
       </c>
       <c r="C129" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41913</v>
+        <v>40018</v>
       </c>
       <c r="D129">
         <v>9</v>
@@ -3157,8 +3043,7 @@
         <v>126</v>
       </c>
       <c r="C130" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>36533</v>
+        <v>39559</v>
       </c>
       <c r="D130">
         <v>7</v>
@@ -3175,8 +3060,7 @@
         <v>127</v>
       </c>
       <c r="C131" s="2">
-        <f t="shared" ref="C131:C151" ca="1" si="2">RANDBETWEEN(DATE(2000,1,1),DATE(2017,3,15))</f>
-        <v>40052</v>
+        <v>39530</v>
       </c>
       <c r="D131">
         <v>8</v>
@@ -3193,8 +3077,7 @@
         <v>128</v>
       </c>
       <c r="C132" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>40029</v>
+        <v>42186</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3211,8 +3094,7 @@
         <v>129</v>
       </c>
       <c r="C133" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>38010</v>
+        <v>41653</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -3229,8 +3111,7 @@
         <v>130</v>
       </c>
       <c r="C134" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>40694</v>
+        <v>40065</v>
       </c>
       <c r="D134">
         <v>6</v>
@@ -3247,8 +3128,7 @@
         <v>131</v>
       </c>
       <c r="C135" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37596</v>
+        <v>36962</v>
       </c>
       <c r="D135">
         <v>3</v>
@@ -3265,8 +3145,7 @@
         <v>132</v>
       </c>
       <c r="C136" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>38348</v>
+        <v>37839</v>
       </c>
       <c r="D136">
         <v>6</v>
@@ -3283,8 +3162,7 @@
         <v>118</v>
       </c>
       <c r="C137" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37893</v>
+        <v>36876</v>
       </c>
       <c r="D137">
         <v>9</v>
@@ -3301,8 +3179,7 @@
         <v>119</v>
       </c>
       <c r="C138" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>39670</v>
+        <v>42718</v>
       </c>
       <c r="D138">
         <v>5</v>
@@ -3319,8 +3196,7 @@
         <v>120</v>
       </c>
       <c r="C139" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>38530</v>
+        <v>37906</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -3337,8 +3213,7 @@
         <v>121</v>
       </c>
       <c r="C140" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>39975</v>
+        <v>37492</v>
       </c>
       <c r="D140">
         <v>4</v>
@@ -3355,8 +3230,7 @@
         <v>122</v>
       </c>
       <c r="C141" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>42596</v>
+        <v>39133</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -3373,8 +3247,7 @@
         <v>123</v>
       </c>
       <c r="C142" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>36994</v>
+        <v>37399</v>
       </c>
       <c r="D142">
         <v>5</v>
@@ -3391,8 +3264,7 @@
         <v>124</v>
       </c>
       <c r="C143" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>40260</v>
+        <v>40071</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -3409,8 +3281,7 @@
         <v>125</v>
       </c>
       <c r="C144" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37669</v>
+        <v>41730</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -3427,8 +3298,7 @@
         <v>126</v>
       </c>
       <c r="C145" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>42752</v>
+        <v>37635</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -3445,8 +3315,7 @@
         <v>127</v>
       </c>
       <c r="C146" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>39786</v>
+        <v>39510</v>
       </c>
       <c r="D146">
         <v>8</v>
@@ -3463,8 +3332,7 @@
         <v>128</v>
       </c>
       <c r="C147" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>36768</v>
+        <v>40427</v>
       </c>
       <c r="D147">
         <v>3</v>
@@ -3481,8 +3349,7 @@
         <v>129</v>
       </c>
       <c r="C148" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>42144</v>
+        <v>39719</v>
       </c>
       <c r="D148">
         <v>4</v>
@@ -3499,8 +3366,7 @@
         <v>130</v>
       </c>
       <c r="C149" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>40485</v>
+        <v>42265</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -3517,8 +3383,7 @@
         <v>131</v>
       </c>
       <c r="C150" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>38883</v>
+        <v>41042</v>
       </c>
       <c r="D150">
         <v>9</v>
@@ -3535,8 +3400,7 @@
         <v>132</v>
       </c>
       <c r="C151" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>42482</v>
+        <v>37563</v>
       </c>
       <c r="D151">
         <v>6</v>
@@ -3549,4 +3413,2728 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G300"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>121</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42816</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>40697</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3">
+        <v>39419</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>41899</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3">
+        <v>38006</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42766</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>147</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42479</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42379</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3">
+        <v>38853</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42548</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3">
+        <v>39915</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3">
+        <v>41670</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>118</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42193</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42123</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3">
+        <v>41334</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>59</v>
+      </c>
+      <c r="B17" s="3">
+        <v>40266</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>144</v>
+      </c>
+      <c r="B18" s="3">
+        <v>40610</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42416</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>145</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42179</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>70</v>
+      </c>
+      <c r="B21" s="3">
+        <v>38172</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3">
+        <v>42510</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>114</v>
+      </c>
+      <c r="B23" s="3">
+        <v>39363</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3">
+        <v>38108</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>142</v>
+      </c>
+      <c r="B25" s="3">
+        <v>41185</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>113</v>
+      </c>
+      <c r="B26" s="3">
+        <v>42802</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3">
+        <v>42373</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>146</v>
+      </c>
+      <c r="B28" s="3">
+        <v>41100</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>72</v>
+      </c>
+      <c r="B29" s="3">
+        <v>41817</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>74</v>
+      </c>
+      <c r="B30" s="3">
+        <v>38178</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>109</v>
+      </c>
+      <c r="B31" s="3">
+        <v>39282</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>63</v>
+      </c>
+      <c r="B32" s="3">
+        <v>40804</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>42792</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>40780</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>122</v>
+      </c>
+      <c r="B35" s="3">
+        <v>41678</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>128</v>
+      </c>
+      <c r="B36" s="3">
+        <v>40288</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37" s="3">
+        <v>40000</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>123</v>
+      </c>
+      <c r="B38" s="3">
+        <v>42082</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>121</v>
+      </c>
+      <c r="B39" s="3">
+        <v>42827</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40" s="3">
+        <v>40651</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3">
+        <v>38613</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>113</v>
+      </c>
+      <c r="B42" s="3">
+        <v>42493</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>77</v>
+      </c>
+      <c r="B43" s="3">
+        <v>37576</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>129</v>
+      </c>
+      <c r="B44" s="3">
+        <v>41389</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>149</v>
+      </c>
+      <c r="B45" s="3">
+        <v>41504</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>42561</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3">
+        <v>42707</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48" s="3">
+        <v>42509</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>93</v>
+      </c>
+      <c r="B49" s="3">
+        <v>40095</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>87</v>
+      </c>
+      <c r="B50" s="3">
+        <v>42387</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="B51" s="3">
+        <v>40908</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" s="3">
+        <v>38631</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="B53" s="3">
+        <v>41387</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3">
+        <v>42293</v>
+      </c>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>36</v>
+      </c>
+      <c r="B55" s="3">
+        <v>41046</v>
+      </c>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>60</v>
+      </c>
+      <c r="B56" s="3">
+        <v>39239</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>42665</v>
+      </c>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>102</v>
+      </c>
+      <c r="B58" s="3">
+        <v>39636</v>
+      </c>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>67</v>
+      </c>
+      <c r="B59" s="3">
+        <v>39455</v>
+      </c>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="B60" s="3">
+        <v>39269</v>
+      </c>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3">
+        <v>41752</v>
+      </c>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>134</v>
+      </c>
+      <c r="B62" s="3">
+        <v>39180</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>131</v>
+      </c>
+      <c r="B63" s="3">
+        <v>42454</v>
+      </c>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>95</v>
+      </c>
+      <c r="B64" s="3">
+        <v>42450</v>
+      </c>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>115</v>
+      </c>
+      <c r="B65" s="3">
+        <v>42019</v>
+      </c>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>87</v>
+      </c>
+      <c r="B66" s="3">
+        <v>42029</v>
+      </c>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>43</v>
+      </c>
+      <c r="B67" s="3">
+        <v>42602</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>99</v>
+      </c>
+      <c r="B68" s="3">
+        <v>42754</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>19</v>
+      </c>
+      <c r="B69" s="3">
+        <v>39394</v>
+      </c>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>148</v>
+      </c>
+      <c r="B70" s="3">
+        <v>42611</v>
+      </c>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>61</v>
+      </c>
+      <c r="B71" s="3">
+        <v>42018</v>
+      </c>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" s="3">
+        <v>40481</v>
+      </c>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>145</v>
+      </c>
+      <c r="B73" s="3">
+        <v>42806</v>
+      </c>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" s="3">
+        <v>42672</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>94</v>
+      </c>
+      <c r="B75" s="3">
+        <v>40324</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>122</v>
+      </c>
+      <c r="B76" s="3">
+        <v>40961</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>116</v>
+      </c>
+      <c r="B77" s="3">
+        <v>42035</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>127</v>
+      </c>
+      <c r="B78" s="3">
+        <v>40866</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>19</v>
+      </c>
+      <c r="B79" s="3">
+        <v>39137</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>117</v>
+      </c>
+      <c r="B80" s="3">
+        <v>41354</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>38</v>
+      </c>
+      <c r="B81" s="3">
+        <v>42524</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>137</v>
+      </c>
+      <c r="B82" s="3">
+        <v>42801</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>95</v>
+      </c>
+      <c r="B83" s="3">
+        <v>41575</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84" s="3">
+        <v>40605</v>
+      </c>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>113</v>
+      </c>
+      <c r="B85" s="3">
+        <v>42563</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>75</v>
+      </c>
+      <c r="B86" s="3">
+        <v>39352</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>146</v>
+      </c>
+      <c r="B87" s="3">
+        <v>42166</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>121</v>
+      </c>
+      <c r="B88" s="3">
+        <v>42786</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>27</v>
+      </c>
+      <c r="B89" s="3">
+        <v>42288</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" s="3">
+        <v>41724</v>
+      </c>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>94</v>
+      </c>
+      <c r="B91" s="3">
+        <v>39705</v>
+      </c>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>60</v>
+      </c>
+      <c r="B92" s="3">
+        <v>39158</v>
+      </c>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>22</v>
+      </c>
+      <c r="B93" s="3">
+        <v>42796</v>
+      </c>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>26</v>
+      </c>
+      <c r="B94" s="3">
+        <v>41367</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>15</v>
+      </c>
+      <c r="B95" s="3">
+        <v>42696</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>11</v>
+      </c>
+      <c r="B96" s="3">
+        <v>42750</v>
+      </c>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>28</v>
+      </c>
+      <c r="B97" s="3">
+        <v>42790</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>17</v>
+      </c>
+      <c r="B98" s="3">
+        <v>41177</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99" s="3">
+        <v>42740</v>
+      </c>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>129</v>
+      </c>
+      <c r="B100" s="3">
+        <v>40018</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>26</v>
+      </c>
+      <c r="B101" s="3">
+        <v>41406</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>150</v>
+      </c>
+      <c r="B102" s="3">
+        <v>41864</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>95</v>
+      </c>
+      <c r="B103" s="3">
+        <v>40673</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>60</v>
+      </c>
+      <c r="B104" s="3">
+        <v>37229</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>15</v>
+      </c>
+      <c r="B105" s="3">
+        <v>42549</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>85</v>
+      </c>
+      <c r="B106" s="3">
+        <v>38860</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>31</v>
+      </c>
+      <c r="B107" s="3">
+        <v>41975</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>44</v>
+      </c>
+      <c r="B108" s="3">
+        <v>41988</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>148</v>
+      </c>
+      <c r="B109" s="3">
+        <v>42696</v>
+      </c>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>124</v>
+      </c>
+      <c r="B110" s="3">
+        <v>39936</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>138</v>
+      </c>
+      <c r="B111" s="3">
+        <v>39309</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>76</v>
+      </c>
+      <c r="B112" s="3">
+        <v>42454</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>126</v>
+      </c>
+      <c r="B113" s="3">
+        <v>42504</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>73</v>
+      </c>
+      <c r="B114" s="3">
+        <v>42064</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>63</v>
+      </c>
+      <c r="B115" s="3">
+        <v>39133</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>27</v>
+      </c>
+      <c r="B116" s="3">
+        <v>38162</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>110</v>
+      </c>
+      <c r="B117" s="3">
+        <v>38885</v>
+      </c>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118" s="3">
+        <v>41834</v>
+      </c>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>103</v>
+      </c>
+      <c r="B119" s="3">
+        <v>41381</v>
+      </c>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>142</v>
+      </c>
+      <c r="B120" s="3">
+        <v>42181</v>
+      </c>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>27</v>
+      </c>
+      <c r="B121" s="3">
+        <v>40518</v>
+      </c>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>10</v>
+      </c>
+      <c r="B122" s="3">
+        <v>41121</v>
+      </c>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>19</v>
+      </c>
+      <c r="B123" s="3">
+        <v>41154</v>
+      </c>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>107</v>
+      </c>
+      <c r="B124" s="3">
+        <v>41679</v>
+      </c>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>84</v>
+      </c>
+      <c r="B125" s="3">
+        <v>42708</v>
+      </c>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>101</v>
+      </c>
+      <c r="B126" s="3">
+        <v>42732</v>
+      </c>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <v>42456</v>
+      </c>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>72</v>
+      </c>
+      <c r="B128" s="3">
+        <v>39884</v>
+      </c>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>73</v>
+      </c>
+      <c r="B129" s="3">
+        <v>39792</v>
+      </c>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>46</v>
+      </c>
+      <c r="B130" s="3">
+        <v>42784</v>
+      </c>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>116</v>
+      </c>
+      <c r="B131" s="3">
+        <v>42044</v>
+      </c>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>95</v>
+      </c>
+      <c r="B132" s="3">
+        <v>42748</v>
+      </c>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>49</v>
+      </c>
+      <c r="B133" s="3">
+        <v>42752</v>
+      </c>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>61</v>
+      </c>
+      <c r="B134" s="3">
+        <v>41288</v>
+      </c>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>150</v>
+      </c>
+      <c r="B135" s="3">
+        <v>38447</v>
+      </c>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>24</v>
+      </c>
+      <c r="B136" s="3">
+        <v>40658</v>
+      </c>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>90</v>
+      </c>
+      <c r="B137" s="3">
+        <v>42704</v>
+      </c>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="B138" s="3">
+        <v>40500</v>
+      </c>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>79</v>
+      </c>
+      <c r="B139" s="3">
+        <v>40610</v>
+      </c>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>36</v>
+      </c>
+      <c r="B140" s="3">
+        <v>40697</v>
+      </c>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>136</v>
+      </c>
+      <c r="B141" s="3">
+        <v>41440</v>
+      </c>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142" s="3">
+        <v>42424</v>
+      </c>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>93</v>
+      </c>
+      <c r="B143" s="3">
+        <v>40436</v>
+      </c>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>74</v>
+      </c>
+      <c r="B144" s="3">
+        <v>40929</v>
+      </c>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>64</v>
+      </c>
+      <c r="B145" s="3">
+        <v>39560</v>
+      </c>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>10</v>
+      </c>
+      <c r="B146" s="3">
+        <v>41453</v>
+      </c>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>129</v>
+      </c>
+      <c r="B147" s="3">
+        <v>41534</v>
+      </c>
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>32</v>
+      </c>
+      <c r="B148" s="3">
+        <v>41821</v>
+      </c>
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>145</v>
+      </c>
+      <c r="B149" s="3">
+        <v>40144</v>
+      </c>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>29</v>
+      </c>
+      <c r="B150" s="3">
+        <v>40945</v>
+      </c>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>68</v>
+      </c>
+      <c r="B151" s="3">
+        <v>42642</v>
+      </c>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>104</v>
+      </c>
+      <c r="B152" s="3">
+        <v>41221</v>
+      </c>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>63</v>
+      </c>
+      <c r="B153" s="3">
+        <v>42643</v>
+      </c>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>69</v>
+      </c>
+      <c r="B154" s="3">
+        <v>41719</v>
+      </c>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>123</v>
+      </c>
+      <c r="B155" s="3">
+        <v>42710</v>
+      </c>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>81</v>
+      </c>
+      <c r="B156" s="3">
+        <v>41332</v>
+      </c>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>60</v>
+      </c>
+      <c r="B157" s="3">
+        <v>36800</v>
+      </c>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>59</v>
+      </c>
+      <c r="B158" s="3">
+        <v>39016</v>
+      </c>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>137</v>
+      </c>
+      <c r="B159" s="3">
+        <v>42731</v>
+      </c>
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>85</v>
+      </c>
+      <c r="B160" s="3">
+        <v>40673</v>
+      </c>
+      <c r="G160" s="3"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>68</v>
+      </c>
+      <c r="B161" s="3">
+        <v>42731</v>
+      </c>
+      <c r="G161" s="3"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>88</v>
+      </c>
+      <c r="B162" s="3">
+        <v>42028</v>
+      </c>
+      <c r="G162" s="3"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>87</v>
+      </c>
+      <c r="B163" s="3">
+        <v>42482</v>
+      </c>
+      <c r="G163" s="3"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>139</v>
+      </c>
+      <c r="B164" s="3">
+        <v>42041</v>
+      </c>
+      <c r="G164" s="3"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>58</v>
+      </c>
+      <c r="B165" s="3">
+        <v>40469</v>
+      </c>
+      <c r="G165" s="3"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>5</v>
+      </c>
+      <c r="B166" s="3">
+        <v>42820</v>
+      </c>
+      <c r="G166" s="3"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>65</v>
+      </c>
+      <c r="B167" s="3">
+        <v>42323</v>
+      </c>
+      <c r="G167" s="3"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>45</v>
+      </c>
+      <c r="B168" s="3">
+        <v>42633</v>
+      </c>
+      <c r="G168" s="3"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>124</v>
+      </c>
+      <c r="B169" s="3">
+        <v>41510</v>
+      </c>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>43</v>
+      </c>
+      <c r="B170" s="3">
+        <v>42403</v>
+      </c>
+      <c r="G170" s="3"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>148</v>
+      </c>
+      <c r="B171" s="3">
+        <v>42565</v>
+      </c>
+      <c r="G171" s="3"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>77</v>
+      </c>
+      <c r="B172" s="3">
+        <v>38217</v>
+      </c>
+      <c r="G172" s="3"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>132</v>
+      </c>
+      <c r="B173" s="3">
+        <v>41661</v>
+      </c>
+      <c r="G173" s="3"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>49</v>
+      </c>
+      <c r="B174" s="3">
+        <v>39807</v>
+      </c>
+      <c r="G174" s="3"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>115</v>
+      </c>
+      <c r="B175" s="3">
+        <v>41033</v>
+      </c>
+      <c r="G175" s="3"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>114</v>
+      </c>
+      <c r="B176" s="3">
+        <v>37469</v>
+      </c>
+      <c r="G176" s="3"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>82</v>
+      </c>
+      <c r="B177" s="3">
+        <v>40489</v>
+      </c>
+      <c r="G177" s="3"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>38</v>
+      </c>
+      <c r="B178" s="3">
+        <v>41077</v>
+      </c>
+      <c r="G178" s="3"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>54</v>
+      </c>
+      <c r="B179" s="3">
+        <v>41282</v>
+      </c>
+      <c r="G179" s="3"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>49</v>
+      </c>
+      <c r="B180" s="3">
+        <v>39777</v>
+      </c>
+      <c r="G180" s="3"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>14</v>
+      </c>
+      <c r="B181" s="3">
+        <v>42785</v>
+      </c>
+      <c r="G181" s="3"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>123</v>
+      </c>
+      <c r="B182" s="3">
+        <v>42084</v>
+      </c>
+      <c r="G182" s="3"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>72</v>
+      </c>
+      <c r="B183" s="3">
+        <v>39536</v>
+      </c>
+      <c r="G183" s="3"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>22</v>
+      </c>
+      <c r="B184" s="3">
+        <v>42786</v>
+      </c>
+      <c r="G184" s="3"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>62</v>
+      </c>
+      <c r="B185" s="3">
+        <v>39147</v>
+      </c>
+      <c r="G185" s="3"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>110</v>
+      </c>
+      <c r="B186" s="3">
+        <v>39547</v>
+      </c>
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>130</v>
+      </c>
+      <c r="B187" s="3">
+        <v>39865</v>
+      </c>
+      <c r="G187" s="3"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>85</v>
+      </c>
+      <c r="B188" s="3">
+        <v>38625</v>
+      </c>
+      <c r="G188" s="3"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>65</v>
+      </c>
+      <c r="B189" s="3">
+        <v>41507</v>
+      </c>
+      <c r="G189" s="3"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190" s="3">
+        <v>42070</v>
+      </c>
+      <c r="G190" s="3"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>32</v>
+      </c>
+      <c r="B191" s="3">
+        <v>41180</v>
+      </c>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>107</v>
+      </c>
+      <c r="B192" s="3">
+        <v>42654</v>
+      </c>
+      <c r="G192" s="3"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>71</v>
+      </c>
+      <c r="B193" s="3">
+        <v>39567</v>
+      </c>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>77</v>
+      </c>
+      <c r="B194" s="3">
+        <v>42035</v>
+      </c>
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>38</v>
+      </c>
+      <c r="B195" s="3">
+        <v>42819</v>
+      </c>
+      <c r="G195" s="3"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>97</v>
+      </c>
+      <c r="B196" s="3">
+        <v>41570</v>
+      </c>
+      <c r="G196" s="3"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>57</v>
+      </c>
+      <c r="B197" s="3">
+        <v>40249</v>
+      </c>
+      <c r="G197" s="3"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>141</v>
+      </c>
+      <c r="B198" s="3">
+        <v>42431</v>
+      </c>
+      <c r="G198" s="3"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>39</v>
+      </c>
+      <c r="B199" s="3">
+        <v>40979</v>
+      </c>
+      <c r="G199" s="3"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>17</v>
+      </c>
+      <c r="B200" s="3">
+        <v>40441</v>
+      </c>
+      <c r="G200" s="3"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>22</v>
+      </c>
+      <c r="B201" s="3">
+        <v>42826</v>
+      </c>
+      <c r="G201" s="3"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>74</v>
+      </c>
+      <c r="B202" s="3">
+        <v>39562</v>
+      </c>
+      <c r="G202" s="3"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>111</v>
+      </c>
+      <c r="B203" s="3">
+        <v>41540</v>
+      </c>
+      <c r="G203" s="3"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>119</v>
+      </c>
+      <c r="B204" s="3">
+        <v>42238</v>
+      </c>
+      <c r="G204" s="3"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>57</v>
+      </c>
+      <c r="B205" s="3">
+        <v>39368</v>
+      </c>
+      <c r="G205" s="3"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206" s="3">
+        <v>42355</v>
+      </c>
+      <c r="G206" s="3"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>56</v>
+      </c>
+      <c r="B207" s="3">
+        <v>42747</v>
+      </c>
+      <c r="G207" s="3"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>49</v>
+      </c>
+      <c r="B208" s="3">
+        <v>39017</v>
+      </c>
+      <c r="G208" s="3"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>91</v>
+      </c>
+      <c r="B209" s="3">
+        <v>40868</v>
+      </c>
+      <c r="G209" s="3"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>43</v>
+      </c>
+      <c r="B210" s="3">
+        <v>42488</v>
+      </c>
+      <c r="G210" s="3"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>24</v>
+      </c>
+      <c r="B211" s="3">
+        <v>42321</v>
+      </c>
+      <c r="G211" s="3"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>17</v>
+      </c>
+      <c r="B212" s="3">
+        <v>40774</v>
+      </c>
+      <c r="G212" s="3"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>137</v>
+      </c>
+      <c r="B213" s="3">
+        <v>42725</v>
+      </c>
+      <c r="G213" s="3"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214" s="3">
+        <v>42716</v>
+      </c>
+      <c r="G214" s="3"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>128</v>
+      </c>
+      <c r="B215" s="3">
+        <v>41125</v>
+      </c>
+      <c r="G215" s="3"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>93</v>
+      </c>
+      <c r="B216" s="3">
+        <v>40815</v>
+      </c>
+      <c r="G216" s="3"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>121</v>
+      </c>
+      <c r="B217" s="3">
+        <v>42804</v>
+      </c>
+      <c r="G217" s="3"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>98</v>
+      </c>
+      <c r="B218" s="3">
+        <v>39816</v>
+      </c>
+      <c r="G218" s="3"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>134</v>
+      </c>
+      <c r="B219" s="3">
+        <v>40793</v>
+      </c>
+      <c r="G219" s="3"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>116</v>
+      </c>
+      <c r="B220" s="3">
+        <v>42386</v>
+      </c>
+      <c r="G220" s="3"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>13</v>
+      </c>
+      <c r="B221" s="3">
+        <v>41422</v>
+      </c>
+      <c r="G221" s="3"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>14</v>
+      </c>
+      <c r="B222" s="3">
+        <v>40563</v>
+      </c>
+      <c r="G222" s="3"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>21</v>
+      </c>
+      <c r="B223" s="3">
+        <v>42411</v>
+      </c>
+      <c r="G223" s="3"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>16</v>
+      </c>
+      <c r="B224" s="3">
+        <v>41721</v>
+      </c>
+      <c r="G224" s="3"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>143</v>
+      </c>
+      <c r="B225" s="3">
+        <v>42384</v>
+      </c>
+      <c r="G225" s="3"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>127</v>
+      </c>
+      <c r="B226" s="3">
+        <v>40061</v>
+      </c>
+      <c r="G226" s="3"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>5</v>
+      </c>
+      <c r="B227" s="3">
+        <v>42711</v>
+      </c>
+      <c r="G227" s="3"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>50</v>
+      </c>
+      <c r="B228" s="3">
+        <v>39792</v>
+      </c>
+      <c r="G228" s="3"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>85</v>
+      </c>
+      <c r="B229" s="3">
+        <v>42350</v>
+      </c>
+      <c r="G229" s="3"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>46</v>
+      </c>
+      <c r="B230" s="3">
+        <v>38077</v>
+      </c>
+      <c r="G230" s="3"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>124</v>
+      </c>
+      <c r="B231" s="3">
+        <v>42711</v>
+      </c>
+      <c r="G231" s="3"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>137</v>
+      </c>
+      <c r="B232" s="3">
+        <v>42735</v>
+      </c>
+      <c r="G232" s="3"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>18</v>
+      </c>
+      <c r="B233" s="3">
+        <v>39275</v>
+      </c>
+      <c r="G233" s="3"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>42</v>
+      </c>
+      <c r="B234" s="3">
+        <v>42525</v>
+      </c>
+      <c r="G234" s="3"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>129</v>
+      </c>
+      <c r="B235" s="3">
+        <v>39623</v>
+      </c>
+      <c r="G235" s="3"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>48</v>
+      </c>
+      <c r="B236" s="3">
+        <v>39514</v>
+      </c>
+      <c r="G236" s="3"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>62</v>
+      </c>
+      <c r="B237" s="3">
+        <v>41178</v>
+      </c>
+      <c r="G237" s="3"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>114</v>
+      </c>
+      <c r="B238" s="3">
+        <v>39443</v>
+      </c>
+      <c r="G238" s="3"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>26</v>
+      </c>
+      <c r="B239" s="3">
+        <v>37395</v>
+      </c>
+      <c r="G239" s="3"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>61</v>
+      </c>
+      <c r="B240" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G240" s="3"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>14</v>
+      </c>
+      <c r="B241" s="3">
+        <v>42580</v>
+      </c>
+      <c r="G241" s="3"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>21</v>
+      </c>
+      <c r="B242" s="3">
+        <v>42740</v>
+      </c>
+      <c r="G242" s="3"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>42</v>
+      </c>
+      <c r="B243" s="3">
+        <v>40110</v>
+      </c>
+      <c r="G243" s="3"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>90</v>
+      </c>
+      <c r="B244" s="3">
+        <v>39699</v>
+      </c>
+      <c r="G244" s="3"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>39</v>
+      </c>
+      <c r="B245" s="3">
+        <v>41264</v>
+      </c>
+      <c r="G245" s="3"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>71</v>
+      </c>
+      <c r="B246" s="3">
+        <v>42122</v>
+      </c>
+      <c r="G246" s="3"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>72</v>
+      </c>
+      <c r="B247" s="3">
+        <v>40225</v>
+      </c>
+      <c r="G247" s="3"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>62</v>
+      </c>
+      <c r="B248" s="3">
+        <v>39177</v>
+      </c>
+      <c r="G248" s="3"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>50</v>
+      </c>
+      <c r="B249" s="3">
+        <v>41660</v>
+      </c>
+      <c r="G249" s="3"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>117</v>
+      </c>
+      <c r="B250" s="3">
+        <v>41227</v>
+      </c>
+      <c r="G250" s="3"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>133</v>
+      </c>
+      <c r="B251" s="3">
+        <v>41295</v>
+      </c>
+      <c r="G251" s="3"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>146</v>
+      </c>
+      <c r="B252" s="3">
+        <v>41542</v>
+      </c>
+      <c r="G252" s="3"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>81</v>
+      </c>
+      <c r="B253" s="3">
+        <v>39410</v>
+      </c>
+      <c r="G253" s="3"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>88</v>
+      </c>
+      <c r="B254" s="3">
+        <v>42775</v>
+      </c>
+      <c r="G254" s="3"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>32</v>
+      </c>
+      <c r="B255" s="3">
+        <v>40490</v>
+      </c>
+      <c r="G255" s="3"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>89</v>
+      </c>
+      <c r="B256" s="3">
+        <v>41125</v>
+      </c>
+      <c r="G256" s="3"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>107</v>
+      </c>
+      <c r="B257" s="3">
+        <v>42032</v>
+      </c>
+      <c r="G257" s="3"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>35</v>
+      </c>
+      <c r="B258" s="3">
+        <v>40707</v>
+      </c>
+      <c r="G258" s="3"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>38</v>
+      </c>
+      <c r="B259" s="3">
+        <v>40047</v>
+      </c>
+      <c r="G259" s="3"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>74</v>
+      </c>
+      <c r="B260" s="3">
+        <v>41197</v>
+      </c>
+      <c r="G260" s="3"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>80</v>
+      </c>
+      <c r="B261" s="3">
+        <v>41278</v>
+      </c>
+      <c r="G261" s="3"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>18</v>
+      </c>
+      <c r="B262" s="3">
+        <v>39337</v>
+      </c>
+      <c r="G262" s="3"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>16</v>
+      </c>
+      <c r="B263" s="3">
+        <v>37591</v>
+      </c>
+      <c r="G263" s="3"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>44</v>
+      </c>
+      <c r="B264" s="3">
+        <v>39836</v>
+      </c>
+      <c r="G264" s="3"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>7</v>
+      </c>
+      <c r="B265" s="3">
+        <v>41548</v>
+      </c>
+      <c r="G265" s="3"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>55</v>
+      </c>
+      <c r="B266" s="3">
+        <v>40984</v>
+      </c>
+      <c r="G266" s="3"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>90</v>
+      </c>
+      <c r="B267" s="3">
+        <v>42570</v>
+      </c>
+      <c r="G267" s="3"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>149</v>
+      </c>
+      <c r="B268" s="3">
+        <v>41844</v>
+      </c>
+      <c r="G268" s="3"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>20</v>
+      </c>
+      <c r="B269" s="3">
+        <v>41668</v>
+      </c>
+      <c r="G269" s="3"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>45</v>
+      </c>
+      <c r="B270" s="3">
+        <v>42714</v>
+      </c>
+      <c r="G270" s="3"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>47</v>
+      </c>
+      <c r="B271" s="3">
+        <v>38338</v>
+      </c>
+      <c r="G271" s="3"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>100</v>
+      </c>
+      <c r="B272" s="3">
+        <v>42130</v>
+      </c>
+      <c r="G272" s="3"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>36</v>
+      </c>
+      <c r="B273" s="3">
+        <v>39862</v>
+      </c>
+      <c r="G273" s="3"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>148</v>
+      </c>
+      <c r="B274" s="3">
+        <v>42706</v>
+      </c>
+      <c r="G274" s="3"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>72</v>
+      </c>
+      <c r="B275" s="3">
+        <v>40392</v>
+      </c>
+      <c r="G275" s="3"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>37</v>
+      </c>
+      <c r="B276" s="3">
+        <v>41420</v>
+      </c>
+      <c r="G276" s="3"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>40</v>
+      </c>
+      <c r="B277" s="3">
+        <v>41439</v>
+      </c>
+      <c r="G277" s="3"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>129</v>
+      </c>
+      <c r="B278" s="3">
+        <v>39567</v>
+      </c>
+      <c r="G278" s="3"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>56</v>
+      </c>
+      <c r="B279" s="3">
+        <v>41886</v>
+      </c>
+      <c r="G279" s="3"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>35</v>
+      </c>
+      <c r="B280" s="3">
+        <v>38185</v>
+      </c>
+      <c r="G280" s="3"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>61</v>
+      </c>
+      <c r="B281" s="3">
+        <v>42747</v>
+      </c>
+      <c r="G281" s="3"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>67</v>
+      </c>
+      <c r="B282" s="3">
+        <v>40950</v>
+      </c>
+      <c r="G282" s="3"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>123</v>
+      </c>
+      <c r="B283" s="3">
+        <v>42725</v>
+      </c>
+      <c r="G283" s="3"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>132</v>
+      </c>
+      <c r="B284" s="3">
+        <v>42419</v>
+      </c>
+      <c r="G284" s="3"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>57</v>
+      </c>
+      <c r="B285" s="3">
+        <v>40282</v>
+      </c>
+      <c r="G285" s="3"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>136</v>
+      </c>
+      <c r="B286" s="3">
+        <v>37026</v>
+      </c>
+      <c r="G286" s="3"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>106</v>
+      </c>
+      <c r="B287" s="3">
+        <v>40332</v>
+      </c>
+      <c r="G287" s="3"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>96</v>
+      </c>
+      <c r="B288" s="3">
+        <v>40716</v>
+      </c>
+      <c r="G288" s="3"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>116</v>
+      </c>
+      <c r="B289" s="3">
+        <v>42817</v>
+      </c>
+      <c r="G289" s="3"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>106</v>
+      </c>
+      <c r="B290" s="3">
+        <v>41101</v>
+      </c>
+      <c r="G290" s="3"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>75</v>
+      </c>
+      <c r="B291" s="3">
+        <v>42794</v>
+      </c>
+      <c r="G291" s="3"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>140</v>
+      </c>
+      <c r="B292" s="3">
+        <v>42587</v>
+      </c>
+      <c r="G292" s="3"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>124</v>
+      </c>
+      <c r="B293" s="3">
+        <v>41225</v>
+      </c>
+      <c r="G293" s="3"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>100</v>
+      </c>
+      <c r="B294" s="3">
+        <v>42216</v>
+      </c>
+      <c r="G294" s="3"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>68</v>
+      </c>
+      <c r="B295" s="3">
+        <v>42795</v>
+      </c>
+      <c r="G295" s="3"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>112</v>
+      </c>
+      <c r="B296" s="3">
+        <v>41858</v>
+      </c>
+      <c r="G296" s="3"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>127</v>
+      </c>
+      <c r="B297" s="3">
+        <v>42295</v>
+      </c>
+      <c r="G297" s="3"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>121</v>
+      </c>
+      <c r="B298" s="3">
+        <v>42827</v>
+      </c>
+      <c r="G298" s="3"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>109</v>
+      </c>
+      <c r="B299" s="3">
+        <v>40838</v>
+      </c>
+      <c r="G299" s="3"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>19</v>
+      </c>
+      <c r="B300" s="3">
+        <v>39461</v>
+      </c>
+      <c r="G300" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ch5-databases/res/pets.xlsx
+++ b/ch5-databases/res/pets.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\GitHub\computer-apps-primer\ch5-databases\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\computer-apps-primer\ch5-databases\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pets" sheetId="1" r:id="rId1"/>
-    <sheet name="Visits" sheetId="2" r:id="rId2"/>
+    <sheet name="Visit" sheetId="3" r:id="rId2"/>
+    <sheet name="Invoice" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="151">
   <si>
     <t>Hardy</t>
   </si>
@@ -441,9 +442,6 @@
     <t>Birthday</t>
   </si>
   <si>
-    <t>Patient</t>
-  </si>
-  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -451,6 +449,36 @@
   </si>
   <si>
     <t>VisitDate</t>
+  </si>
+  <si>
+    <t>shots</t>
+  </si>
+  <si>
+    <t>checkup</t>
+  </si>
+  <si>
+    <t>surgery</t>
+  </si>
+  <si>
+    <t>microchip</t>
+  </si>
+  <si>
+    <t>PatientID</t>
+  </si>
+  <si>
+    <t>VisitID</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>OverDue</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3419,164 +3447,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>121</v>
       </c>
       <c r="B2" s="3">
         <v>42816</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>40697</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>144</v>
       </c>
       <c r="B4" s="3">
         <v>39419</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>41899</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>46</v>
       </c>
       <c r="B6" s="3">
         <v>38006</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>42766</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>147</v>
       </c>
       <c r="B8" s="3">
         <v>42479</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>48</v>
       </c>
       <c r="B9" s="3">
         <v>42379</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>125</v>
       </c>
       <c r="B10" s="3">
         <v>38853</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>42548</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>130</v>
       </c>
       <c r="B12" s="3">
         <v>39915</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>61</v>
       </c>
       <c r="B13" s="3">
         <v>41670</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>118</v>
       </c>
       <c r="B14" s="3">
         <v>42193</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>70</v>
       </c>
       <c r="B15" s="3">
         <v>42123</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>36</v>
       </c>
       <c r="B16" s="3">
         <v>41334</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3585,7 +3690,12 @@
       <c r="B17" s="3">
         <v>40266</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -3594,7 +3704,12 @@
       <c r="B18" s="3">
         <v>40610</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3603,7 +3718,15 @@
       <c r="B19" s="3">
         <v>42416</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -3612,7 +3735,12 @@
       <c r="B20" s="3">
         <v>42179</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -3621,7 +3749,12 @@
       <c r="B21" s="3">
         <v>38172</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -3630,7 +3763,12 @@
       <c r="B22" s="3">
         <v>42510</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3639,7 +3777,12 @@
       <c r="B23" s="3">
         <v>39363</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -3648,7 +3791,12 @@
       <c r="B24" s="3">
         <v>38108</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3657,7 +3805,12 @@
       <c r="B25" s="3">
         <v>41185</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3666,7 +3819,12 @@
       <c r="B26" s="3">
         <v>42802</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -3675,7 +3833,12 @@
       <c r="B27" s="3">
         <v>42373</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -3684,7 +3847,12 @@
       <c r="B28" s="3">
         <v>41100</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -3693,7 +3861,12 @@
       <c r="B29" s="3">
         <v>41817</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3702,7 +3875,12 @@
       <c r="B30" s="3">
         <v>38178</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -3711,7 +3889,12 @@
       <c r="B31" s="3">
         <v>39282</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3720,2419 +3903,8284 @@
       <c r="B32" s="3">
         <v>40804</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" s="3">
         <v>42792</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
       <c r="B34" s="3">
         <v>40780</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>122</v>
       </c>
       <c r="B35" s="3">
         <v>41678</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>128</v>
       </c>
       <c r="B36" s="3">
         <v>40288</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>27</v>
       </c>
       <c r="B37" s="3">
         <v>40000</v>
       </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>123</v>
       </c>
       <c r="B38" s="3">
         <v>42082</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>121</v>
       </c>
       <c r="B39" s="3">
         <v>42827</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
       <c r="B40" s="3">
         <v>40651</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
       <c r="B41" s="3">
         <v>38613</v>
       </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>113</v>
       </c>
       <c r="B42" s="3">
         <v>42493</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>77</v>
       </c>
       <c r="B43" s="3">
         <v>37576</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>129</v>
       </c>
       <c r="B44" s="3">
         <v>41389</v>
       </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>149</v>
       </c>
       <c r="B45" s="3">
         <v>41504</v>
       </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" s="3">
         <v>42561</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" s="3">
         <v>42707</v>
       </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24</v>
       </c>
       <c r="B48" s="3">
         <v>42509</v>
       </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>93</v>
       </c>
       <c r="B49" s="3">
         <v>40095</v>
       </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>87</v>
       </c>
       <c r="B50" s="3">
         <v>42387</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
       <c r="B51" s="3">
         <v>40908</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
       <c r="B52" s="3">
         <v>38631</v>
       </c>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>60</v>
       </c>
       <c r="B53" s="3">
         <v>41387</v>
       </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>56</v>
       </c>
       <c r="B54" s="3">
         <v>42293</v>
       </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>36</v>
       </c>
       <c r="B55" s="3">
         <v>41046</v>
       </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>60</v>
       </c>
       <c r="B56" s="3">
         <v>39239</v>
       </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" s="3">
         <v>42665</v>
       </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>102</v>
       </c>
       <c r="B58" s="3">
         <v>39636</v>
       </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>67</v>
       </c>
       <c r="B59" s="3">
         <v>39455</v>
       </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>27</v>
       </c>
       <c r="B60" s="3">
         <v>39269</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
       <c r="B61" s="3">
         <v>41752</v>
       </c>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>134</v>
       </c>
       <c r="B62" s="3">
         <v>39180</v>
       </c>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>131</v>
       </c>
       <c r="B63" s="3">
         <v>42454</v>
       </c>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>95</v>
       </c>
       <c r="B64" s="3">
         <v>42450</v>
       </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>115</v>
       </c>
       <c r="B65" s="3">
         <v>42019</v>
       </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>87</v>
       </c>
       <c r="B66" s="3">
         <v>42029</v>
       </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>43</v>
       </c>
       <c r="B67" s="3">
         <v>42602</v>
       </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>99</v>
       </c>
       <c r="B68" s="3">
         <v>42754</v>
       </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19</v>
       </c>
       <c r="B69" s="3">
         <v>39394</v>
       </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>148</v>
       </c>
       <c r="B70" s="3">
         <v>42611</v>
       </c>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>61</v>
       </c>
       <c r="B71" s="3">
         <v>42018</v>
       </c>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
       <c r="B72" s="3">
         <v>40481</v>
       </c>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>145</v>
       </c>
       <c r="B73" s="3">
         <v>42806</v>
       </c>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6</v>
       </c>
       <c r="B74" s="3">
         <v>42672</v>
       </c>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>94</v>
       </c>
       <c r="B75" s="3">
         <v>40324</v>
       </c>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>122</v>
       </c>
       <c r="B76" s="3">
         <v>40961</v>
       </c>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>116</v>
       </c>
       <c r="B77" s="3">
         <v>42035</v>
       </c>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>127</v>
       </c>
       <c r="B78" s="3">
         <v>40866</v>
       </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>19</v>
       </c>
       <c r="B79" s="3">
         <v>39137</v>
       </c>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>117</v>
       </c>
       <c r="B80" s="3">
         <v>41354</v>
       </c>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>38</v>
       </c>
       <c r="B81" s="3">
         <v>42524</v>
       </c>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>137</v>
       </c>
       <c r="B82" s="3">
         <v>42801</v>
       </c>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>95</v>
       </c>
       <c r="B83" s="3">
         <v>41575</v>
       </c>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>16</v>
       </c>
       <c r="B84" s="3">
         <v>40605</v>
       </c>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>113</v>
       </c>
       <c r="B85" s="3">
         <v>42563</v>
       </c>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>75</v>
       </c>
       <c r="B86" s="3">
         <v>39352</v>
       </c>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>146</v>
       </c>
       <c r="B87" s="3">
         <v>42166</v>
       </c>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>121</v>
       </c>
       <c r="B88" s="3">
         <v>42786</v>
       </c>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>27</v>
       </c>
       <c r="B89" s="3">
         <v>42288</v>
       </c>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
       <c r="B90" s="3">
         <v>41724</v>
       </c>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>94</v>
       </c>
       <c r="B91" s="3">
         <v>39705</v>
       </c>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>60</v>
       </c>
       <c r="B92" s="3">
         <v>39158</v>
       </c>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>22</v>
       </c>
       <c r="B93" s="3">
         <v>42796</v>
       </c>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>144</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>26</v>
       </c>
       <c r="B94" s="3">
         <v>41367</v>
       </c>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>15</v>
       </c>
       <c r="B95" s="3">
         <v>42696</v>
       </c>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>11</v>
       </c>
       <c r="B96" s="3">
         <v>42750</v>
       </c>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>28</v>
       </c>
       <c r="B97" s="3">
         <v>42790</v>
       </c>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>17</v>
       </c>
       <c r="B98" s="3">
         <v>41177</v>
       </c>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7</v>
       </c>
       <c r="B99" s="3">
         <v>42740</v>
       </c>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>129</v>
       </c>
       <c r="B100" s="3">
         <v>40018</v>
       </c>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>26</v>
       </c>
       <c r="B101" s="3">
         <v>41406</v>
       </c>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>150</v>
       </c>
       <c r="B102" s="3">
         <v>41864</v>
       </c>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>141</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>95</v>
       </c>
       <c r="B103" s="3">
         <v>40673</v>
       </c>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>60</v>
       </c>
       <c r="B104" s="3">
         <v>37229</v>
       </c>
-      <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>15</v>
       </c>
       <c r="B105" s="3">
         <v>42549</v>
       </c>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>142</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>85</v>
       </c>
       <c r="B106" s="3">
         <v>38860</v>
       </c>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>31</v>
       </c>
       <c r="B107" s="3">
         <v>41975</v>
       </c>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>44</v>
       </c>
       <c r="B108" s="3">
         <v>41988</v>
       </c>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>148</v>
       </c>
       <c r="B109" s="3">
         <v>42696</v>
       </c>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>143</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>124</v>
       </c>
       <c r="B110" s="3">
         <v>39936</v>
       </c>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>138</v>
       </c>
       <c r="B111" s="3">
         <v>39309</v>
       </c>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>76</v>
       </c>
       <c r="B112" s="3">
         <v>42454</v>
       </c>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>126</v>
       </c>
       <c r="B113" s="3">
         <v>42504</v>
       </c>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>144</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>73</v>
       </c>
       <c r="B114" s="3">
         <v>42064</v>
       </c>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>144</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>63</v>
       </c>
       <c r="B115" s="3">
         <v>39133</v>
       </c>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>142</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>27</v>
       </c>
       <c r="B116" s="3">
         <v>38162</v>
       </c>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>110</v>
       </c>
       <c r="B117" s="3">
         <v>38885</v>
       </c>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>141</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
       <c r="B118" s="3">
         <v>41834</v>
       </c>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>103</v>
       </c>
       <c r="B119" s="3">
         <v>41381</v>
       </c>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>141</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>142</v>
       </c>
       <c r="B120" s="3">
         <v>42181</v>
       </c>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>27</v>
       </c>
       <c r="B121" s="3">
         <v>40518</v>
       </c>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>10</v>
       </c>
       <c r="B122" s="3">
         <v>41121</v>
       </c>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>19</v>
       </c>
       <c r="B123" s="3">
         <v>41154</v>
       </c>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>141</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>107</v>
       </c>
       <c r="B124" s="3">
         <v>41679</v>
       </c>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>84</v>
       </c>
       <c r="B125" s="3">
         <v>42708</v>
       </c>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>141</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>101</v>
       </c>
       <c r="B126" s="3">
         <v>42732</v>
       </c>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="3">
         <v>42456</v>
       </c>
-      <c r="G127" s="3"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>142</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>72</v>
       </c>
       <c r="B128" s="3">
         <v>39884</v>
       </c>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>144</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>73</v>
       </c>
       <c r="B129" s="3">
         <v>39792</v>
       </c>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>46</v>
       </c>
       <c r="B130" s="3">
         <v>42784</v>
       </c>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>116</v>
       </c>
       <c r="B131" s="3">
         <v>42044</v>
       </c>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>143</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>95</v>
       </c>
       <c r="B132" s="3">
         <v>42748</v>
       </c>
-      <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>49</v>
       </c>
       <c r="B133" s="3">
         <v>42752</v>
       </c>
-      <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>61</v>
       </c>
       <c r="B134" s="3">
         <v>41288</v>
       </c>
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>150</v>
       </c>
       <c r="B135" s="3">
         <v>38447</v>
       </c>
-      <c r="G135" s="3"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>24</v>
       </c>
       <c r="B136" s="3">
         <v>40658</v>
       </c>
-      <c r="G136" s="3"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>90</v>
       </c>
       <c r="B137" s="3">
         <v>42704</v>
       </c>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>143</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>14</v>
       </c>
       <c r="B138" s="3">
         <v>40500</v>
       </c>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>79</v>
       </c>
       <c r="B139" s="3">
         <v>40610</v>
       </c>
-      <c r="G139" s="3"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>36</v>
       </c>
       <c r="B140" s="3">
         <v>40697</v>
       </c>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>144</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>136</v>
       </c>
       <c r="B141" s="3">
         <v>41440</v>
       </c>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>7</v>
       </c>
       <c r="B142" s="3">
         <v>42424</v>
       </c>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>93</v>
       </c>
       <c r="B143" s="3">
         <v>40436</v>
       </c>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>141</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>74</v>
       </c>
       <c r="B144" s="3">
         <v>40929</v>
       </c>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>64</v>
       </c>
       <c r="B145" s="3">
         <v>39560</v>
       </c>
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>142</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>10</v>
       </c>
       <c r="B146" s="3">
         <v>41453</v>
       </c>
-      <c r="G146" s="3"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>142</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>129</v>
       </c>
       <c r="B147" s="3">
         <v>41534</v>
       </c>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>141</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>32</v>
       </c>
       <c r="B148" s="3">
         <v>41821</v>
       </c>
-      <c r="G148" s="3"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>143</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>145</v>
       </c>
       <c r="B149" s="3">
         <v>40144</v>
       </c>
-      <c r="G149" s="3"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>142</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>29</v>
       </c>
       <c r="B150" s="3">
         <v>40945</v>
       </c>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>144</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>68</v>
       </c>
       <c r="B151" s="3">
         <v>42642</v>
       </c>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>144</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>104</v>
       </c>
       <c r="B152" s="3">
         <v>41221</v>
       </c>
-      <c r="G152" s="3"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>141</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>63</v>
       </c>
       <c r="B153" s="3">
         <v>42643</v>
       </c>
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>144</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>69</v>
       </c>
       <c r="B154" s="3">
         <v>41719</v>
       </c>
-      <c r="G154" s="3"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>144</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>123</v>
       </c>
       <c r="B155" s="3">
         <v>42710</v>
       </c>
-      <c r="G155" s="3"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>144</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>81</v>
       </c>
       <c r="B156" s="3">
         <v>41332</v>
       </c>
-      <c r="G156" s="3"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>141</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>60</v>
       </c>
       <c r="B157" s="3">
         <v>36800</v>
       </c>
-      <c r="G157" s="3"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>143</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>59</v>
       </c>
       <c r="B158" s="3">
         <v>39016</v>
       </c>
-      <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>141</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>137</v>
       </c>
       <c r="B159" s="3">
         <v>42731</v>
       </c>
-      <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>141</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>85</v>
       </c>
       <c r="B160" s="3">
         <v>40673</v>
       </c>
-      <c r="G160" s="3"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>142</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>68</v>
       </c>
       <c r="B161" s="3">
         <v>42731</v>
       </c>
-      <c r="G161" s="3"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>143</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>88</v>
       </c>
       <c r="B162" s="3">
         <v>42028</v>
       </c>
-      <c r="G162" s="3"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>144</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>87</v>
       </c>
       <c r="B163" s="3">
         <v>42482</v>
       </c>
-      <c r="G163" s="3"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>143</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>139</v>
       </c>
       <c r="B164" s="3">
         <v>42041</v>
       </c>
-      <c r="G164" s="3"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>143</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>58</v>
       </c>
       <c r="B165" s="3">
         <v>40469</v>
       </c>
-      <c r="G165" s="3"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>143</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>5</v>
       </c>
       <c r="B166" s="3">
         <v>42820</v>
       </c>
-      <c r="G166" s="3"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>141</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>65</v>
       </c>
       <c r="B167" s="3">
         <v>42323</v>
       </c>
-      <c r="G167" s="3"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>141</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>45</v>
       </c>
       <c r="B168" s="3">
         <v>42633</v>
       </c>
-      <c r="G168" s="3"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>141</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>124</v>
       </c>
       <c r="B169" s="3">
         <v>41510</v>
       </c>
-      <c r="G169" s="3"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>142</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>43</v>
       </c>
       <c r="B170" s="3">
         <v>42403</v>
       </c>
-      <c r="G170" s="3"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>142</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>148</v>
       </c>
       <c r="B171" s="3">
         <v>42565</v>
       </c>
-      <c r="G171" s="3"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>143</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>77</v>
       </c>
       <c r="B172" s="3">
         <v>38217</v>
       </c>
-      <c r="G172" s="3"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>141</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>132</v>
       </c>
       <c r="B173" s="3">
         <v>41661</v>
       </c>
-      <c r="G173" s="3"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>144</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>49</v>
       </c>
       <c r="B174" s="3">
         <v>39807</v>
       </c>
-      <c r="G174" s="3"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>141</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>115</v>
       </c>
       <c r="B175" s="3">
         <v>41033</v>
       </c>
-      <c r="G175" s="3"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>142</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>114</v>
       </c>
       <c r="B176" s="3">
         <v>37469</v>
       </c>
-      <c r="G176" s="3"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>141</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>82</v>
       </c>
       <c r="B177" s="3">
         <v>40489</v>
       </c>
-      <c r="G177" s="3"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>142</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>38</v>
       </c>
       <c r="B178" s="3">
         <v>41077</v>
       </c>
-      <c r="G178" s="3"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>143</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>54</v>
       </c>
       <c r="B179" s="3">
         <v>41282</v>
       </c>
-      <c r="G179" s="3"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>141</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>49</v>
       </c>
       <c r="B180" s="3">
         <v>39777</v>
       </c>
-      <c r="G180" s="3"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>141</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>14</v>
       </c>
       <c r="B181" s="3">
         <v>42785</v>
       </c>
-      <c r="G181" s="3"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>144</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>123</v>
       </c>
       <c r="B182" s="3">
         <v>42084</v>
       </c>
-      <c r="G182" s="3"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>143</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>72</v>
       </c>
       <c r="B183" s="3">
         <v>39536</v>
       </c>
-      <c r="G183" s="3"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>144</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>22</v>
       </c>
       <c r="B184" s="3">
         <v>42786</v>
       </c>
-      <c r="G184" s="3"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>144</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>62</v>
       </c>
       <c r="B185" s="3">
         <v>39147</v>
       </c>
-      <c r="G185" s="3"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>144</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>110</v>
       </c>
       <c r="B186" s="3">
         <v>39547</v>
       </c>
-      <c r="G186" s="3"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>143</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>130</v>
       </c>
       <c r="B187" s="3">
         <v>39865</v>
       </c>
-      <c r="G187" s="3"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>144</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>85</v>
       </c>
       <c r="B188" s="3">
         <v>38625</v>
       </c>
-      <c r="G188" s="3"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>143</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>65</v>
       </c>
       <c r="B189" s="3">
         <v>41507</v>
       </c>
-      <c r="G189" s="3"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>142</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
       <c r="B190" s="3">
         <v>42070</v>
       </c>
-      <c r="G190" s="3"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>144</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>32</v>
       </c>
       <c r="B191" s="3">
         <v>41180</v>
       </c>
-      <c r="G191" s="3"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>141</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>107</v>
       </c>
       <c r="B192" s="3">
         <v>42654</v>
       </c>
-      <c r="G192" s="3"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>144</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>71</v>
       </c>
       <c r="B193" s="3">
         <v>39567</v>
       </c>
-      <c r="G193" s="3"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>142</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>77</v>
       </c>
       <c r="B194" s="3">
         <v>42035</v>
       </c>
-      <c r="G194" s="3"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>142</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>38</v>
       </c>
       <c r="B195" s="3">
         <v>42819</v>
       </c>
-      <c r="G195" s="3"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>144</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>97</v>
       </c>
       <c r="B196" s="3">
         <v>41570</v>
       </c>
-      <c r="G196" s="3"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>142</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>57</v>
       </c>
       <c r="B197" s="3">
         <v>40249</v>
       </c>
-      <c r="G197" s="3"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>144</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>141</v>
       </c>
       <c r="B198" s="3">
         <v>42431</v>
       </c>
-      <c r="G198" s="3"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>142</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>39</v>
       </c>
       <c r="B199" s="3">
         <v>40979</v>
       </c>
-      <c r="G199" s="3"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>143</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>17</v>
       </c>
       <c r="B200" s="3">
         <v>40441</v>
       </c>
-      <c r="G200" s="3"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>144</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>22</v>
       </c>
       <c r="B201" s="3">
         <v>42826</v>
       </c>
-      <c r="G201" s="3"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>143</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>74</v>
       </c>
       <c r="B202" s="3">
         <v>39562</v>
       </c>
-      <c r="G202" s="3"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>144</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>111</v>
       </c>
       <c r="B203" s="3">
         <v>41540</v>
       </c>
-      <c r="G203" s="3"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>143</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>119</v>
       </c>
       <c r="B204" s="3">
         <v>42238</v>
       </c>
-      <c r="G204" s="3"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>141</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>57</v>
       </c>
       <c r="B205" s="3">
         <v>39368</v>
       </c>
-      <c r="G205" s="3"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>141</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4</v>
       </c>
       <c r="B206" s="3">
         <v>42355</v>
       </c>
-      <c r="G206" s="3"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>142</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>56</v>
       </c>
       <c r="B207" s="3">
         <v>42747</v>
       </c>
-      <c r="G207" s="3"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>142</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>49</v>
       </c>
       <c r="B208" s="3">
         <v>39017</v>
       </c>
-      <c r="G208" s="3"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>141</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>91</v>
       </c>
       <c r="B209" s="3">
         <v>40868</v>
       </c>
-      <c r="G209" s="3"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>143</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>43</v>
       </c>
       <c r="B210" s="3">
         <v>42488</v>
       </c>
-      <c r="G210" s="3"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>141</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>24</v>
       </c>
       <c r="B211" s="3">
         <v>42321</v>
       </c>
-      <c r="G211" s="3"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>141</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>17</v>
       </c>
       <c r="B212" s="3">
         <v>40774</v>
       </c>
-      <c r="G212" s="3"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>143</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>137</v>
       </c>
       <c r="B213" s="3">
         <v>42725</v>
       </c>
-      <c r="G213" s="3"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>141</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5</v>
       </c>
       <c r="B214" s="3">
         <v>42716</v>
       </c>
-      <c r="G214" s="3"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>141</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>128</v>
       </c>
       <c r="B215" s="3">
         <v>41125</v>
       </c>
-      <c r="G215" s="3"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>144</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>93</v>
       </c>
       <c r="B216" s="3">
         <v>40815</v>
       </c>
-      <c r="G216" s="3"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>144</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>121</v>
       </c>
       <c r="B217" s="3">
         <v>42804</v>
       </c>
-      <c r="G217" s="3"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>143</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>98</v>
       </c>
       <c r="B218" s="3">
         <v>39816</v>
       </c>
-      <c r="G218" s="3"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>143</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>134</v>
       </c>
       <c r="B219" s="3">
         <v>40793</v>
       </c>
-      <c r="G219" s="3"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>144</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>116</v>
       </c>
       <c r="B220" s="3">
         <v>42386</v>
       </c>
-      <c r="G220" s="3"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>143</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>13</v>
       </c>
       <c r="B221" s="3">
         <v>41422</v>
       </c>
-      <c r="G221" s="3"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>144</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>14</v>
       </c>
       <c r="B222" s="3">
         <v>40563</v>
       </c>
-      <c r="G222" s="3"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>144</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>21</v>
       </c>
       <c r="B223" s="3">
         <v>42411</v>
       </c>
-      <c r="G223" s="3"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>142</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>16</v>
       </c>
       <c r="B224" s="3">
         <v>41721</v>
       </c>
-      <c r="G224" s="3"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>144</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>143</v>
       </c>
       <c r="B225" s="3">
         <v>42384</v>
       </c>
-      <c r="G225" s="3"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>142</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>127</v>
       </c>
       <c r="B226" s="3">
         <v>40061</v>
       </c>
-      <c r="G226" s="3"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>144</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>5</v>
       </c>
       <c r="B227" s="3">
         <v>42711</v>
       </c>
-      <c r="G227" s="3"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>142</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>50</v>
       </c>
       <c r="B228" s="3">
         <v>39792</v>
       </c>
-      <c r="G228" s="3"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>142</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>85</v>
       </c>
       <c r="B229" s="3">
         <v>42350</v>
       </c>
-      <c r="G229" s="3"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>141</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>46</v>
       </c>
       <c r="B230" s="3">
         <v>38077</v>
       </c>
-      <c r="G230" s="3"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>144</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>124</v>
       </c>
       <c r="B231" s="3">
         <v>42711</v>
       </c>
-      <c r="G231" s="3"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>141</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>137</v>
       </c>
       <c r="B232" s="3">
         <v>42735</v>
       </c>
-      <c r="G232" s="3"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>142</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>18</v>
       </c>
       <c r="B233" s="3">
         <v>39275</v>
       </c>
-      <c r="G233" s="3"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>144</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>42</v>
       </c>
       <c r="B234" s="3">
         <v>42525</v>
       </c>
-      <c r="G234" s="3"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>142</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>129</v>
       </c>
       <c r="B235" s="3">
         <v>39623</v>
       </c>
-      <c r="G235" s="3"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>142</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>48</v>
       </c>
       <c r="B236" s="3">
         <v>39514</v>
       </c>
-      <c r="G236" s="3"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>143</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>62</v>
       </c>
       <c r="B237" s="3">
         <v>41178</v>
       </c>
-      <c r="G237" s="3"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>144</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>114</v>
       </c>
       <c r="B238" s="3">
         <v>39443</v>
       </c>
-      <c r="G238" s="3"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>142</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>26</v>
       </c>
       <c r="B239" s="3">
         <v>37395</v>
       </c>
-      <c r="G239" s="3"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>144</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>61</v>
       </c>
       <c r="B240" s="3">
         <v>41600</v>
       </c>
-      <c r="G240" s="3"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>142</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14</v>
       </c>
       <c r="B241" s="3">
         <v>42580</v>
       </c>
-      <c r="G241" s="3"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>142</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>21</v>
       </c>
       <c r="B242" s="3">
         <v>42740</v>
       </c>
-      <c r="G242" s="3"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>141</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>42</v>
       </c>
       <c r="B243" s="3">
         <v>40110</v>
       </c>
-      <c r="G243" s="3"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>144</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>90</v>
       </c>
       <c r="B244" s="3">
         <v>39699</v>
       </c>
-      <c r="G244" s="3"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>144</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>39</v>
       </c>
       <c r="B245" s="3">
         <v>41264</v>
       </c>
-      <c r="G245" s="3"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>143</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>71</v>
       </c>
       <c r="B246" s="3">
         <v>42122</v>
       </c>
-      <c r="G246" s="3"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>144</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>72</v>
       </c>
       <c r="B247" s="3">
         <v>40225</v>
       </c>
-      <c r="G247" s="3"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>144</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>62</v>
       </c>
       <c r="B248" s="3">
         <v>39177</v>
       </c>
-      <c r="G248" s="3"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>144</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>50</v>
       </c>
       <c r="B249" s="3">
         <v>41660</v>
       </c>
-      <c r="G249" s="3"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>143</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>117</v>
       </c>
       <c r="B250" s="3">
         <v>41227</v>
       </c>
-      <c r="G250" s="3"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>142</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>133</v>
       </c>
       <c r="B251" s="3">
         <v>41295</v>
       </c>
-      <c r="G251" s="3"/>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>142</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>146</v>
       </c>
       <c r="B252" s="3">
         <v>41542</v>
       </c>
-      <c r="G252" s="3"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>141</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>81</v>
       </c>
       <c r="B253" s="3">
         <v>39410</v>
       </c>
-      <c r="G253" s="3"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>144</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>88</v>
       </c>
       <c r="B254" s="3">
         <v>42775</v>
       </c>
-      <c r="G254" s="3"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>143</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>32</v>
       </c>
       <c r="B255" s="3">
         <v>40490</v>
       </c>
-      <c r="G255" s="3"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>144</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>89</v>
       </c>
       <c r="B256" s="3">
         <v>41125</v>
       </c>
-      <c r="G256" s="3"/>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>142</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>107</v>
       </c>
       <c r="B257" s="3">
         <v>42032</v>
       </c>
-      <c r="G257" s="3"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>143</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>35</v>
       </c>
       <c r="B258" s="3">
         <v>40707</v>
       </c>
-      <c r="G258" s="3"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>142</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>38</v>
       </c>
       <c r="B259" s="3">
         <v>40047</v>
       </c>
-      <c r="G259" s="3"/>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>144</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>74</v>
       </c>
       <c r="B260" s="3">
         <v>41197</v>
       </c>
-      <c r="G260" s="3"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>143</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>80</v>
       </c>
       <c r="B261" s="3">
         <v>41278</v>
       </c>
-      <c r="G261" s="3"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>142</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>18</v>
       </c>
       <c r="B262" s="3">
         <v>39337</v>
       </c>
-      <c r="G262" s="3"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>142</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>16</v>
       </c>
       <c r="B263" s="3">
         <v>37591</v>
       </c>
-      <c r="G263" s="3"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>141</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>44</v>
       </c>
       <c r="B264" s="3">
         <v>39836</v>
       </c>
-      <c r="G264" s="3"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>144</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>7</v>
       </c>
       <c r="B265" s="3">
         <v>41548</v>
       </c>
-      <c r="G265" s="3"/>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>141</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>55</v>
       </c>
       <c r="B266" s="3">
         <v>40984</v>
       </c>
-      <c r="G266" s="3"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>143</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>90</v>
       </c>
       <c r="B267" s="3">
         <v>42570</v>
       </c>
-      <c r="G267" s="3"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>144</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>149</v>
       </c>
       <c r="B268" s="3">
         <v>41844</v>
       </c>
-      <c r="G268" s="3"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>141</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>20</v>
       </c>
       <c r="B269" s="3">
         <v>41668</v>
       </c>
-      <c r="G269" s="3"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>144</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>45</v>
       </c>
       <c r="B270" s="3">
         <v>42714</v>
       </c>
-      <c r="G270" s="3"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>144</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>47</v>
       </c>
       <c r="B271" s="3">
         <v>38338</v>
       </c>
-      <c r="G271" s="3"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>141</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>100</v>
       </c>
       <c r="B272" s="3">
         <v>42130</v>
       </c>
-      <c r="G272" s="3"/>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>143</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>36</v>
       </c>
       <c r="B273" s="3">
         <v>39862</v>
       </c>
-      <c r="G273" s="3"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>143</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>148</v>
       </c>
       <c r="B274" s="3">
         <v>42706</v>
       </c>
-      <c r="G274" s="3"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>142</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>72</v>
       </c>
       <c r="B275" s="3">
         <v>40392</v>
       </c>
-      <c r="G275" s="3"/>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>143</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>37</v>
       </c>
       <c r="B276" s="3">
         <v>41420</v>
       </c>
-      <c r="G276" s="3"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>143</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>40</v>
       </c>
       <c r="B277" s="3">
         <v>41439</v>
       </c>
-      <c r="G277" s="3"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>142</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>129</v>
       </c>
       <c r="B278" s="3">
         <v>39567</v>
       </c>
-      <c r="G278" s="3"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>144</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>56</v>
       </c>
       <c r="B279" s="3">
         <v>41886</v>
       </c>
-      <c r="G279" s="3"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>142</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>35</v>
       </c>
       <c r="B280" s="3">
         <v>38185</v>
       </c>
-      <c r="G280" s="3"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>144</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>61</v>
       </c>
       <c r="B281" s="3">
         <v>42747</v>
       </c>
-      <c r="G281" s="3"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>143</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>67</v>
       </c>
       <c r="B282" s="3">
         <v>40950</v>
       </c>
-      <c r="G282" s="3"/>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>142</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>123</v>
       </c>
       <c r="B283" s="3">
         <v>42725</v>
       </c>
-      <c r="G283" s="3"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>143</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>132</v>
       </c>
       <c r="B284" s="3">
         <v>42419</v>
       </c>
-      <c r="G284" s="3"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>143</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>57</v>
       </c>
       <c r="B285" s="3">
         <v>40282</v>
       </c>
-      <c r="G285" s="3"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>142</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>136</v>
       </c>
       <c r="B286" s="3">
         <v>37026</v>
       </c>
-      <c r="G286" s="3"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>144</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>106</v>
       </c>
       <c r="B287" s="3">
         <v>40332</v>
       </c>
-      <c r="G287" s="3"/>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>144</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>96</v>
       </c>
       <c r="B288" s="3">
         <v>40716</v>
       </c>
-      <c r="G288" s="3"/>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>142</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>116</v>
       </c>
       <c r="B289" s="3">
         <v>42817</v>
       </c>
-      <c r="G289" s="3"/>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>142</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>106</v>
       </c>
       <c r="B290" s="3">
         <v>41101</v>
       </c>
-      <c r="G290" s="3"/>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>142</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>75</v>
       </c>
       <c r="B291" s="3">
         <v>42794</v>
       </c>
-      <c r="G291" s="3"/>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>142</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>140</v>
       </c>
       <c r="B292" s="3">
         <v>42587</v>
       </c>
-      <c r="G292" s="3"/>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>142</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>124</v>
       </c>
       <c r="B293" s="3">
         <v>41225</v>
       </c>
-      <c r="G293" s="3"/>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>141</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>100</v>
       </c>
       <c r="B294" s="3">
         <v>42216</v>
       </c>
-      <c r="G294" s="3"/>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>142</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>68</v>
       </c>
       <c r="B295" s="3">
         <v>42795</v>
       </c>
-      <c r="G295" s="3"/>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>143</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>112</v>
       </c>
       <c r="B296" s="3">
         <v>41858</v>
       </c>
-      <c r="G296" s="3"/>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>141</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>127</v>
       </c>
       <c r="B297" s="3">
         <v>42295</v>
       </c>
-      <c r="G297" s="3"/>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>141</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>121</v>
       </c>
       <c r="B298" s="3">
         <v>42827</v>
       </c>
-      <c r="G298" s="3"/>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>143</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>109</v>
       </c>
       <c r="B299" s="3">
         <v>40838</v>
       </c>
-      <c r="G299" s="3"/>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>143</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>19</v>
       </c>
       <c r="B300" s="3">
         <v>39461</v>
       </c>
-      <c r="G300" s="3"/>
+      <c r="C300" t="s">
+        <v>142</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D300"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Visit!B2+10</f>
+        <v>42826</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Visit!B3+10</f>
+        <v>40707</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f>Visit!B4+10</f>
+        <v>39429</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <f>Visit!B5+10</f>
+        <v>41909</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f>Visit!B6+10</f>
+        <v>38016</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <f>Visit!B7+10</f>
+        <v>42776</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <f>Visit!B8+10</f>
+        <v>42489</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <f>Visit!B9+10</f>
+        <v>42389</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <f>Visit!B10+10</f>
+        <v>38863</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <f>Visit!B11+10</f>
+        <v>42558</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <f>Visit!B12+10</f>
+        <v>39925</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <f>Visit!B13+10</f>
+        <v>41680</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <f>Visit!B14+10</f>
+        <v>42203</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <f>Visit!B15+10</f>
+        <v>42133</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <f>Visit!B16+10</f>
+        <v>41344</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <f>Visit!B17+10</f>
+        <v>40276</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <f>Visit!B18+10</f>
+        <v>40620</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <f>Visit!B19+10</f>
+        <v>42426</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <f>Visit!B20+10</f>
+        <v>42189</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <f>Visit!B21+10</f>
+        <v>38182</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <f>Visit!B22+10</f>
+        <v>42520</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <f>Visit!B23+10</f>
+        <v>39373</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <f>Visit!B24+10</f>
+        <v>38118</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <f>Visit!B25+10</f>
+        <v>41195</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <f>Visit!B26+10</f>
+        <v>42812</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <f>Visit!B27+10</f>
+        <v>42383</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <f>Visit!B28+10</f>
+        <v>41110</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <f>Visit!B29+10</f>
+        <v>41827</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <f>Visit!B30+10</f>
+        <v>38188</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <f>Visit!B31+10</f>
+        <v>39292</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <f>Visit!B32+10</f>
+        <v>40814</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <f>Visit!B33+10</f>
+        <v>42802</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <f>Visit!B34+10</f>
+        <v>40790</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <f>Visit!B35+10</f>
+        <v>41688</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <f>Visit!B36+10</f>
+        <v>40298</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Visit!B37+10</f>
+        <v>40010</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Visit!B38+10</f>
+        <v>42092</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Visit!B39+10</f>
+        <v>42837</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Visit!B40+10</f>
+        <v>40661</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Visit!B41+10</f>
+        <v>38623</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Visit!B42+10</f>
+        <v>42503</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Visit!B43+10</f>
+        <v>37586</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <f>Visit!B44+10</f>
+        <v>41399</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Visit!B45+10</f>
+        <v>41514</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Visit!B46+10</f>
+        <v>42571</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <f>Visit!B47+10</f>
+        <v>42717</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <f>Visit!B48+10</f>
+        <v>42519</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <f>Visit!B49+10</f>
+        <v>40105</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <f>Visit!B50+10</f>
+        <v>42397</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <f>Visit!B51+10</f>
+        <v>40918</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <f>Visit!B52+10</f>
+        <v>38641</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <f>Visit!B53+10</f>
+        <v>41397</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <f>Visit!B54+10</f>
+        <v>42303</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <f>Visit!B55+10</f>
+        <v>41056</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <f>Visit!B56+10</f>
+        <v>39249</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <f>Visit!B57+10</f>
+        <v>42675</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <f>Visit!B58+10</f>
+        <v>39646</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <f>Visit!B59+10</f>
+        <v>39465</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <f>Visit!B60+10</f>
+        <v>39279</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <f>Visit!B61+10</f>
+        <v>41762</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <f>Visit!B62+10</f>
+        <v>39190</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <f>Visit!B63+10</f>
+        <v>42464</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <f>Visit!B64+10</f>
+        <v>42460</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <f>Visit!B65+10</f>
+        <v>42029</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <f>Visit!B66+10</f>
+        <v>42039</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <f>Visit!B67+10</f>
+        <v>42612</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <f>Visit!B68+10</f>
+        <v>42764</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <f>Visit!B69+10</f>
+        <v>39404</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <f>Visit!B70+10</f>
+        <v>42621</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <f>Visit!B71+10</f>
+        <v>42028</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <f>Visit!B72+10</f>
+        <v>40491</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <f>Visit!B73+10</f>
+        <v>42816</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <f>Visit!B74+10</f>
+        <v>42682</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <f>Visit!B75+10</f>
+        <v>40334</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <f>Visit!B76+10</f>
+        <v>40971</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <f>Visit!B77+10</f>
+        <v>42045</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <f>Visit!B78+10</f>
+        <v>40876</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <f>Visit!B79+10</f>
+        <v>39147</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <f>Visit!B80+10</f>
+        <v>41364</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <f>Visit!B81+10</f>
+        <v>42534</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <f>Visit!B82+10</f>
+        <v>42811</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <f>Visit!B83+10</f>
+        <v>41585</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <f>Visit!B84+10</f>
+        <v>40615</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <f>Visit!B85+10</f>
+        <v>42573</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <f>Visit!B86+10</f>
+        <v>39362</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <f>Visit!B87+10</f>
+        <v>42176</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <f>Visit!B88+10</f>
+        <v>42796</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <f>Visit!B89+10</f>
+        <v>42298</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <f>Visit!B90+10</f>
+        <v>41734</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <f>Visit!B91+10</f>
+        <v>39715</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <f>Visit!B92+10</f>
+        <v>39168</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <f>Visit!B93+10</f>
+        <v>42806</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <f>Visit!B94+10</f>
+        <v>41377</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <f>Visit!B95+10</f>
+        <v>42706</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <f>Visit!B96+10</f>
+        <v>42760</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <f>Visit!B97+10</f>
+        <v>42800</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <f>Visit!B98+10</f>
+        <v>41187</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <f>Visit!B99+10</f>
+        <v>42750</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <f>Visit!B100+10</f>
+        <v>40028</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <f>Visit!B101+10</f>
+        <v>41416</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <f>Visit!B102+10</f>
+        <v>41874</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <f>Visit!B103+10</f>
+        <v>40683</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <f>Visit!B104+10</f>
+        <v>37239</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <f>Visit!B105+10</f>
+        <v>42559</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <f>Visit!B106+10</f>
+        <v>38870</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <f>Visit!B107+10</f>
+        <v>41985</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <f>Visit!B108+10</f>
+        <v>41998</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <f>Visit!B109+10</f>
+        <v>42706</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <f>Visit!B110+10</f>
+        <v>39946</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <f>Visit!B111+10</f>
+        <v>39319</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <f>Visit!B112+10</f>
+        <v>42464</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <f>Visit!B113+10</f>
+        <v>42514</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <f>Visit!B114+10</f>
+        <v>42074</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <f>Visit!B115+10</f>
+        <v>39143</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <f>Visit!B116+10</f>
+        <v>38172</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <f>Visit!B117+10</f>
+        <v>38895</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <f>Visit!B118+10</f>
+        <v>41844</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <f>Visit!B119+10</f>
+        <v>41391</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <f>Visit!B120+10</f>
+        <v>42191</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <f>Visit!B121+10</f>
+        <v>40528</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <f>Visit!B122+10</f>
+        <v>41131</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <f>Visit!B123+10</f>
+        <v>41164</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <f>Visit!B124+10</f>
+        <v>41689</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <f>Visit!B125+10</f>
+        <v>42718</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <f>Visit!B126+10</f>
+        <v>42742</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <f>Visit!B127+10</f>
+        <v>42466</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <f>Visit!B128+10</f>
+        <v>39894</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <f>Visit!B129+10</f>
+        <v>39802</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3">
+        <f>Visit!B130+10</f>
+        <v>42794</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3">
+        <f>Visit!B131+10</f>
+        <v>42054</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3">
+        <f>Visit!B132+10</f>
+        <v>42758</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3">
+        <f>Visit!B133+10</f>
+        <v>42762</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3">
+        <f>Visit!B134+10</f>
+        <v>41298</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3">
+        <f>Visit!B135+10</f>
+        <v>38457</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <f>Visit!B136+10</f>
+        <v>40668</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3">
+        <f>Visit!B137+10</f>
+        <v>42714</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <f>Visit!B138+10</f>
+        <v>40510</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <f>Visit!B139+10</f>
+        <v>40620</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <f>Visit!B140+10</f>
+        <v>40707</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <f>Visit!B141+10</f>
+        <v>41450</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <f>Visit!B142+10</f>
+        <v>42434</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <f>Visit!B143+10</f>
+        <v>40446</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <f>Visit!B144+10</f>
+        <v>40939</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3">
+        <f>Visit!B145+10</f>
+        <v>39570</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3">
+        <f>Visit!B146+10</f>
+        <v>41463</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3">
+        <f>Visit!B147+10</f>
+        <v>41544</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3">
+        <f>Visit!B148+10</f>
+        <v>41831</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3">
+        <f>Visit!B149+10</f>
+        <v>40154</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3">
+        <f>Visit!B150+10</f>
+        <v>40955</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3">
+        <f>Visit!B151+10</f>
+        <v>42652</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3">
+        <f>Visit!B152+10</f>
+        <v>41231</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3">
+        <f>Visit!B153+10</f>
+        <v>42653</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3">
+        <f>Visit!B154+10</f>
+        <v>41729</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3">
+        <f>Visit!B155+10</f>
+        <v>42720</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3">
+        <f>Visit!B156+10</f>
+        <v>41342</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3">
+        <f>Visit!B157+10</f>
+        <v>36810</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3">
+        <f>Visit!B158+10</f>
+        <v>39026</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3">
+        <f>Visit!B159+10</f>
+        <v>42741</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3">
+        <f>Visit!B160+10</f>
+        <v>40683</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3">
+        <f>Visit!B161+10</f>
+        <v>42741</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3">
+        <f>Visit!B162+10</f>
+        <v>42038</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3">
+        <f>Visit!B163+10</f>
+        <v>42492</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3">
+        <f>Visit!B164+10</f>
+        <v>42051</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3">
+        <f>Visit!B165+10</f>
+        <v>40479</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3">
+        <f>Visit!B166+10</f>
+        <v>42830</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3">
+        <f>Visit!B167+10</f>
+        <v>42333</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3">
+        <f>Visit!B168+10</f>
+        <v>42643</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3">
+        <f>Visit!B169+10</f>
+        <v>41520</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3">
+        <f>Visit!B170+10</f>
+        <v>42413</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3">
+        <f>Visit!B171+10</f>
+        <v>42575</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3">
+        <f>Visit!B172+10</f>
+        <v>38227</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3">
+        <f>Visit!B173+10</f>
+        <v>41671</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3">
+        <f>Visit!B174+10</f>
+        <v>39817</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3">
+        <f>Visit!B175+10</f>
+        <v>41043</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3">
+        <f>Visit!B176+10</f>
+        <v>37479</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3">
+        <f>Visit!B177+10</f>
+        <v>40499</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3">
+        <f>Visit!B178+10</f>
+        <v>41087</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3">
+        <f>Visit!B179+10</f>
+        <v>41292</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3">
+        <f>Visit!B180+10</f>
+        <v>39787</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3">
+        <f>Visit!B181+10</f>
+        <v>42795</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3">
+        <f>Visit!B182+10</f>
+        <v>42094</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3">
+        <f>Visit!B183+10</f>
+        <v>39546</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3">
+        <f>Visit!B184+10</f>
+        <v>42796</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3">
+        <f>Visit!B185+10</f>
+        <v>39157</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3">
+        <f>Visit!B186+10</f>
+        <v>39557</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3">
+        <f>Visit!B187+10</f>
+        <v>39875</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3">
+        <f>Visit!B188+10</f>
+        <v>38635</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3">
+        <f>Visit!B189+10</f>
+        <v>41517</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3">
+        <f>Visit!B190+10</f>
+        <v>42080</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3">
+        <f>Visit!B191+10</f>
+        <v>41190</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3">
+        <f>Visit!B192+10</f>
+        <v>42664</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3">
+        <f>Visit!B193+10</f>
+        <v>39577</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3">
+        <f>Visit!B194+10</f>
+        <v>42045</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3">
+        <f>Visit!B195+10</f>
+        <v>42829</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3">
+        <f>Visit!B196+10</f>
+        <v>41580</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3">
+        <f>Visit!B197+10</f>
+        <v>40259</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3">
+        <f>Visit!B198+10</f>
+        <v>42441</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3">
+        <f>Visit!B199+10</f>
+        <v>40989</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3">
+        <f>Visit!B200+10</f>
+        <v>40451</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3">
+        <f>Visit!B201+10</f>
+        <v>42836</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3">
+        <f>Visit!B202+10</f>
+        <v>39572</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="3">
+        <f>Visit!B203+10</f>
+        <v>41550</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3">
+        <f>Visit!B204+10</f>
+        <v>42248</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="3">
+        <f>Visit!B205+10</f>
+        <v>39378</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="3">
+        <f>Visit!B206+10</f>
+        <v>42365</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3">
+        <f>Visit!B207+10</f>
+        <v>42757</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3">
+        <f>Visit!B208+10</f>
+        <v>39027</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="3">
+        <f>Visit!B209+10</f>
+        <v>40878</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3">
+        <f>Visit!B210+10</f>
+        <v>42498</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="3">
+        <f>Visit!B211+10</f>
+        <v>42331</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="3">
+        <f>Visit!B212+10</f>
+        <v>40784</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="3">
+        <f>Visit!B213+10</f>
+        <v>42735</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="3">
+        <f>Visit!B214+10</f>
+        <v>42726</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="3">
+        <f>Visit!B215+10</f>
+        <v>41135</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="3">
+        <f>Visit!B216+10</f>
+        <v>40825</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="3">
+        <f>Visit!B217+10</f>
+        <v>42814</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="3">
+        <f>Visit!B218+10</f>
+        <v>39826</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="3">
+        <f>Visit!B219+10</f>
+        <v>40803</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="3">
+        <f>Visit!B220+10</f>
+        <v>42396</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="3">
+        <f>Visit!B221+10</f>
+        <v>41432</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="3">
+        <f>Visit!B222+10</f>
+        <v>40573</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="3">
+        <f>Visit!B223+10</f>
+        <v>42421</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="3">
+        <f>Visit!B224+10</f>
+        <v>41731</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="3">
+        <f>Visit!B225+10</f>
+        <v>42394</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="3">
+        <f>Visit!B226+10</f>
+        <v>40071</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="3">
+        <f>Visit!B227+10</f>
+        <v>42721</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="3">
+        <f>Visit!B228+10</f>
+        <v>39802</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="3">
+        <f>Visit!B229+10</f>
+        <v>42360</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3">
+        <f>Visit!B230+10</f>
+        <v>38087</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="3">
+        <f>Visit!B231+10</f>
+        <v>42721</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3">
+        <f>Visit!B232+10</f>
+        <v>42745</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="3">
+        <f>Visit!B233+10</f>
+        <v>39285</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="3">
+        <f>Visit!B234+10</f>
+        <v>42535</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="3">
+        <f>Visit!B235+10</f>
+        <v>39633</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="3">
+        <f>Visit!B236+10</f>
+        <v>39524</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="3">
+        <f>Visit!B237+10</f>
+        <v>41188</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="3">
+        <f>Visit!B238+10</f>
+        <v>39453</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="3">
+        <f>Visit!B239+10</f>
+        <v>37405</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="3">
+        <f>Visit!B240+10</f>
+        <v>41610</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="3">
+        <f>Visit!B241+10</f>
+        <v>42590</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="3">
+        <f>Visit!B242+10</f>
+        <v>42750</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="3">
+        <f>Visit!B243+10</f>
+        <v>40120</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="3">
+        <f>Visit!B244+10</f>
+        <v>39709</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="3">
+        <f>Visit!B245+10</f>
+        <v>41274</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="3">
+        <f>Visit!B246+10</f>
+        <v>42132</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="3">
+        <f>Visit!B247+10</f>
+        <v>40235</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="3">
+        <f>Visit!B248+10</f>
+        <v>39187</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="3">
+        <f>Visit!B249+10</f>
+        <v>41670</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="3">
+        <f>Visit!B250+10</f>
+        <v>41237</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="3">
+        <f>Visit!B251+10</f>
+        <v>41305</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="3">
+        <f>Visit!B252+10</f>
+        <v>41552</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="3">
+        <f>Visit!B253+10</f>
+        <v>39420</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="3">
+        <f>Visit!B254+10</f>
+        <v>42785</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="3">
+        <f>Visit!B255+10</f>
+        <v>40500</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="3">
+        <f>Visit!B256+10</f>
+        <v>41135</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="3">
+        <f>Visit!B257+10</f>
+        <v>42042</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="3">
+        <f>Visit!B258+10</f>
+        <v>40717</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="3">
+        <f>Visit!B259+10</f>
+        <v>40057</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="3">
+        <f>Visit!B260+10</f>
+        <v>41207</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="3">
+        <f>Visit!B261+10</f>
+        <v>41288</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="3">
+        <f>Visit!B262+10</f>
+        <v>39347</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="3">
+        <f>Visit!B263+10</f>
+        <v>37601</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="3">
+        <f>Visit!B264+10</f>
+        <v>39846</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="3">
+        <f>Visit!B265+10</f>
+        <v>41558</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="3">
+        <f>Visit!B266+10</f>
+        <v>40994</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" s="3">
+        <f>Visit!B267+10</f>
+        <v>42580</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="3">
+        <f>Visit!B268+10</f>
+        <v>41854</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="3">
+        <f>Visit!B269+10</f>
+        <v>41678</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" s="3">
+        <f>Visit!B270+10</f>
+        <v>42724</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="3">
+        <f>Visit!B271+10</f>
+        <v>38348</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" s="3">
+        <f>Visit!B272+10</f>
+        <v>42140</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" s="3">
+        <f>Visit!B273+10</f>
+        <v>39872</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" s="3">
+        <f>Visit!B274+10</f>
+        <v>42716</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" s="3">
+        <f>Visit!B275+10</f>
+        <v>40402</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" s="3">
+        <f>Visit!B276+10</f>
+        <v>41430</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" s="3">
+        <f>Visit!B277+10</f>
+        <v>41449</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" s="3">
+        <f>Visit!B278+10</f>
+        <v>39577</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" s="3">
+        <f>Visit!B279+10</f>
+        <v>41896</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" s="3">
+        <f>Visit!B280+10</f>
+        <v>38195</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" s="3">
+        <f>Visit!B281+10</f>
+        <v>42757</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" s="3">
+        <f>Visit!B282+10</f>
+        <v>40960</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" s="3">
+        <f>Visit!B283+10</f>
+        <v>42735</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" s="3">
+        <f>Visit!B284+10</f>
+        <v>42429</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" s="3">
+        <f>Visit!B285+10</f>
+        <v>40292</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" s="3">
+        <f>Visit!B286+10</f>
+        <v>37036</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" s="3">
+        <f>Visit!B287+10</f>
+        <v>40342</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" s="3">
+        <f>Visit!B288+10</f>
+        <v>40726</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" s="3">
+        <f>Visit!B289+10</f>
+        <v>42827</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" s="3">
+        <f>Visit!B290+10</f>
+        <v>41111</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" s="3">
+        <f>Visit!B291+10</f>
+        <v>42804</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" s="3">
+        <f>Visit!B292+10</f>
+        <v>42597</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" s="3">
+        <f>Visit!B293+10</f>
+        <v>41235</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" s="3">
+        <f>Visit!B294+10</f>
+        <v>42226</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" s="3">
+        <f>Visit!B295+10</f>
+        <v>42805</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" s="3">
+        <f>Visit!B296+10</f>
+        <v>41868</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="3">
+        <f>Visit!B297+10</f>
+        <v>42305</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="3">
+        <f>Visit!B298+10</f>
+        <v>42837</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="3">
+        <f>Visit!B299+10</f>
+        <v>40848</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" s="3">
+        <f>Visit!B300+10</f>
+        <v>39471</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ch5-databases/res/pets.xlsx
+++ b/ch5-databases/res/pets.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\computer-apps-primer\ch5-databases\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\GitHub\computer-apps-primer\ch5-databases\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pets" sheetId="1" r:id="rId1"/>
-    <sheet name="Visit" sheetId="3" r:id="rId2"/>
+    <sheet name="Visit" sheetId="6" r:id="rId2"/>
     <sheet name="Invoice" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="150">
   <si>
     <t>Hardy</t>
   </si>
@@ -472,13 +472,10 @@
     <t>DueDate</t>
   </si>
   <si>
-    <t>OverDue</t>
-  </si>
-  <si>
     <t>Paid</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -3445,19 +3442,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3683,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>59</v>
       </c>
@@ -3697,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>144</v>
       </c>
@@ -3711,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
@@ -3724,11 +3715,8 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>145</v>
       </c>
@@ -3742,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>70</v>
       </c>
@@ -3756,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43</v>
       </c>
@@ -3770,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>114</v>
       </c>
@@ -3784,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>47</v>
       </c>
@@ -3798,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>142</v>
       </c>
@@ -3812,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>113</v>
       </c>
@@ -3826,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -3840,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>146</v>
       </c>
@@ -3854,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>72</v>
       </c>
@@ -3868,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>74</v>
       </c>
@@ -3882,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>109</v>
       </c>
@@ -3896,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>63</v>
       </c>
@@ -7671,15 +7659,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7688,25 +7674,24 @@
         <v>146</v>
       </c>
       <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <f>Visit!B2+10</f>
+      <c r="B2">
+        <v>533</v>
+      </c>
+      <c r="C2" s="3">
         <v>42826</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7716,12 +7701,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <f>Visit!B3+10</f>
+      <c r="B3">
+        <v>892</v>
+      </c>
+      <c r="C3" s="3">
         <v>40707</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7731,12 +7715,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <f>Visit!B4+10</f>
+      <c r="B4">
+        <v>534</v>
+      </c>
+      <c r="C4" s="3">
         <v>39429</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -7746,12 +7729,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <f>Visit!B5+10</f>
+      <c r="B5">
+        <v>947</v>
+      </c>
+      <c r="C5" s="3">
         <v>41909</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -7761,12 +7743,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <f>Visit!B6+10</f>
+      <c r="B6">
+        <v>914</v>
+      </c>
+      <c r="C6" s="3">
         <v>38016</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7776,12 +7757,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <f>Visit!B7+10</f>
+      <c r="B7">
+        <v>968</v>
+      </c>
+      <c r="C7" s="3">
         <v>42776</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -7791,12 +7771,11 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <f>Visit!B8+10</f>
+      <c r="B8">
+        <v>397</v>
+      </c>
+      <c r="C8" s="3">
         <v>42489</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -7806,12 +7785,11 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <f>Visit!B9+10</f>
+      <c r="B9">
+        <v>99</v>
+      </c>
+      <c r="C9" s="3">
         <v>42389</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -7821,12 +7799,11 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <f>Visit!B10+10</f>
+      <c r="B10">
+        <v>420</v>
+      </c>
+      <c r="C10" s="3">
         <v>38863</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -7836,12 +7813,11 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <f>Visit!B11+10</f>
+      <c r="B11">
+        <v>976</v>
+      </c>
+      <c r="C11" s="3">
         <v>42558</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -7851,12 +7827,11 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <f>Visit!B12+10</f>
+      <c r="B12">
+        <v>619</v>
+      </c>
+      <c r="C12" s="3">
         <v>39925</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -7866,12 +7841,11 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <f>Visit!B13+10</f>
+      <c r="B13">
+        <v>853</v>
+      </c>
+      <c r="C13" s="3">
         <v>41680</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -7881,12 +7855,11 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <f>Visit!B14+10</f>
+      <c r="B14">
+        <v>812</v>
+      </c>
+      <c r="C14" s="3">
         <v>42203</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -7896,12 +7869,11 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <f>Visit!B15+10</f>
+      <c r="B15">
+        <v>728</v>
+      </c>
+      <c r="C15" s="3">
         <v>42133</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -7911,12 +7883,11 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <f>Visit!B16+10</f>
+      <c r="B16">
+        <v>346</v>
+      </c>
+      <c r="C16" s="3">
         <v>41344</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -7926,12 +7897,11 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <f>Visit!B17+10</f>
+      <c r="B17">
+        <v>149</v>
+      </c>
+      <c r="C17" s="3">
         <v>40276</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -7941,12 +7911,11 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <f>Visit!B18+10</f>
+      <c r="B18">
+        <v>744</v>
+      </c>
+      <c r="C18" s="3">
         <v>40620</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7956,12 +7925,11 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <f>Visit!B19+10</f>
+      <c r="B19">
+        <v>917</v>
+      </c>
+      <c r="C19" s="3">
         <v>42426</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -7971,12 +7939,11 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <f>Visit!B20+10</f>
+      <c r="B20">
+        <v>706</v>
+      </c>
+      <c r="C20" s="3">
         <v>42189</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -7986,12 +7953,11 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <f>Visit!B21+10</f>
+      <c r="B21">
+        <v>729</v>
+      </c>
+      <c r="C21" s="3">
         <v>38182</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8001,12 +7967,11 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <f>Visit!B22+10</f>
+      <c r="B22">
+        <v>262</v>
+      </c>
+      <c r="C22" s="3">
         <v>42520</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -8016,12 +7981,11 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <f>Visit!B23+10</f>
+      <c r="B23">
+        <v>385</v>
+      </c>
+      <c r="C23" s="3">
         <v>39373</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -8031,12 +7995,11 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <f>Visit!B24+10</f>
+      <c r="B24">
+        <v>201</v>
+      </c>
+      <c r="C24" s="3">
         <v>38118</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -8046,12 +8009,11 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <f>Visit!B25+10</f>
+      <c r="B25">
+        <v>279</v>
+      </c>
+      <c r="C25" s="3">
         <v>41195</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -8061,12 +8023,11 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <f>Visit!B26+10</f>
+      <c r="B26">
+        <v>576</v>
+      </c>
+      <c r="C26" s="3">
         <v>42812</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -8076,12 +8037,11 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <f>Visit!B27+10</f>
+      <c r="B27">
+        <v>326</v>
+      </c>
+      <c r="C27" s="3">
         <v>42383</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -8091,12 +8051,11 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <f>Visit!B28+10</f>
+      <c r="B28">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3">
         <v>41110</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -8106,12 +8065,11 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <f>Visit!B29+10</f>
+      <c r="B29">
+        <v>500</v>
+      </c>
+      <c r="C29" s="3">
         <v>41827</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -8121,12 +8079,11 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <f>Visit!B30+10</f>
+      <c r="B30">
+        <v>199</v>
+      </c>
+      <c r="C30" s="3">
         <v>38188</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -8136,12 +8093,11 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <f>Visit!B31+10</f>
+      <c r="B31">
+        <v>117</v>
+      </c>
+      <c r="C31" s="3">
         <v>39292</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -8151,12 +8107,11 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <f>Visit!B32+10</f>
+      <c r="B32">
+        <v>220</v>
+      </c>
+      <c r="C32" s="3">
         <v>40814</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -8166,12 +8121,11 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <f>Visit!B33+10</f>
+      <c r="B33">
+        <v>265</v>
+      </c>
+      <c r="C33" s="3">
         <v>42802</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -8181,12 +8135,11 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
-        <f>Visit!B34+10</f>
+      <c r="B34">
+        <v>892</v>
+      </c>
+      <c r="C34" s="3">
         <v>40790</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -8196,12 +8149,11 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
-        <f>Visit!B35+10</f>
+      <c r="B35">
+        <v>962</v>
+      </c>
+      <c r="C35" s="3">
         <v>41688</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -8211,12 +8163,11 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
-        <f>Visit!B36+10</f>
+      <c r="B36">
+        <v>823</v>
+      </c>
+      <c r="C36" s="3">
         <v>40298</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -8226,12 +8177,11 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
-        <f>Visit!B37+10</f>
+      <c r="B37">
+        <v>890</v>
+      </c>
+      <c r="C37" s="3">
         <v>40010</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -8241,12 +8191,11 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
-        <f>Visit!B38+10</f>
+      <c r="B38">
+        <v>907</v>
+      </c>
+      <c r="C38" s="3">
         <v>42092</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -8256,12 +8205,11 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
-        <f>Visit!B39+10</f>
+      <c r="B39">
+        <v>765</v>
+      </c>
+      <c r="C39" s="3">
         <v>42837</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -8271,12 +8219,11 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <f>Visit!B40+10</f>
+      <c r="B40">
+        <v>261</v>
+      </c>
+      <c r="C40" s="3">
         <v>40661</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -8286,12 +8233,11 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
-        <f>Visit!B41+10</f>
+      <c r="B41">
+        <v>380</v>
+      </c>
+      <c r="C41" s="3">
         <v>38623</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -8301,12 +8247,11 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
-        <f>Visit!B42+10</f>
+      <c r="B42">
+        <v>915</v>
+      </c>
+      <c r="C42" s="3">
         <v>42503</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -8316,12 +8261,11 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
-        <f>Visit!B43+10</f>
+      <c r="B43">
+        <v>492</v>
+      </c>
+      <c r="C43" s="3">
         <v>37586</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -8331,12 +8275,11 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
-        <f>Visit!B44+10</f>
+      <c r="B44">
+        <v>351</v>
+      </c>
+      <c r="C44" s="3">
         <v>41399</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -8346,12 +8289,11 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
-        <f>Visit!B45+10</f>
+      <c r="B45">
+        <v>423</v>
+      </c>
+      <c r="C45" s="3">
         <v>41514</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -8361,12 +8303,11 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
-        <f>Visit!B46+10</f>
+      <c r="B46">
+        <v>708</v>
+      </c>
+      <c r="C46" s="3">
         <v>42571</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -8376,12 +8317,11 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
-        <f>Visit!B47+10</f>
+      <c r="B47">
+        <v>731</v>
+      </c>
+      <c r="C47" s="3">
         <v>42717</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -8391,12 +8331,11 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
-        <f>Visit!B48+10</f>
+      <c r="B48">
+        <v>771</v>
+      </c>
+      <c r="C48" s="3">
         <v>42519</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -8406,12 +8345,11 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
-        <f>Visit!B49+10</f>
+      <c r="B49">
+        <v>763</v>
+      </c>
+      <c r="C49" s="3">
         <v>40105</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -8421,12 +8359,11 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
-        <f>Visit!B50+10</f>
+      <c r="B50">
+        <v>561</v>
+      </c>
+      <c r="C50" s="3">
         <v>42397</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -8436,12 +8373,11 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
-        <f>Visit!B51+10</f>
+      <c r="B51">
+        <v>670</v>
+      </c>
+      <c r="C51" s="3">
         <v>40918</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -8451,12 +8387,11 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
-        <f>Visit!B52+10</f>
+      <c r="B52">
+        <v>784</v>
+      </c>
+      <c r="C52" s="3">
         <v>38641</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -8466,12 +8401,11 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
-        <f>Visit!B53+10</f>
+      <c r="B53">
+        <v>711</v>
+      </c>
+      <c r="C53" s="3">
         <v>41397</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -8481,12 +8415,11 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
-        <f>Visit!B54+10</f>
+      <c r="B54">
+        <v>611</v>
+      </c>
+      <c r="C54" s="3">
         <v>42303</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -8496,12 +8429,11 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
-        <f>Visit!B55+10</f>
+      <c r="B55">
+        <v>983</v>
+      </c>
+      <c r="C55" s="3">
         <v>41056</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -8511,12 +8443,11 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
-        <f>Visit!B56+10</f>
+      <c r="B56">
+        <v>802</v>
+      </c>
+      <c r="C56" s="3">
         <v>39249</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -8526,12 +8457,11 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
-        <f>Visit!B57+10</f>
+      <c r="B57">
+        <v>560</v>
+      </c>
+      <c r="C57" s="3">
         <v>42675</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8541,12 +8471,11 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
-        <f>Visit!B58+10</f>
+      <c r="B58">
+        <v>176</v>
+      </c>
+      <c r="C58" s="3">
         <v>39646</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8556,12 +8485,11 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
-        <f>Visit!B59+10</f>
+      <c r="B59">
+        <v>875</v>
+      </c>
+      <c r="C59" s="3">
         <v>39465</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -8571,12 +8499,11 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
-        <f>Visit!B60+10</f>
+      <c r="B60">
+        <v>186</v>
+      </c>
+      <c r="C60" s="3">
         <v>39279</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -8586,12 +8513,11 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
-        <f>Visit!B61+10</f>
+      <c r="B61">
+        <v>883</v>
+      </c>
+      <c r="C61" s="3">
         <v>41762</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8601,12 +8527,11 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
-        <f>Visit!B62+10</f>
+      <c r="B62">
+        <v>119</v>
+      </c>
+      <c r="C62" s="3">
         <v>39190</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -8616,12 +8541,11 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
-        <f>Visit!B63+10</f>
+      <c r="B63">
+        <v>588</v>
+      </c>
+      <c r="C63" s="3">
         <v>42464</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8631,12 +8555,11 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
-        <f>Visit!B64+10</f>
+      <c r="B64">
+        <v>602</v>
+      </c>
+      <c r="C64" s="3">
         <v>42460</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8646,12 +8569,11 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
-        <f>Visit!B65+10</f>
+      <c r="B65">
+        <v>522</v>
+      </c>
+      <c r="C65" s="3">
         <v>42029</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -8661,12 +8583,11 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
-        <f>Visit!B66+10</f>
+      <c r="B66">
+        <v>802</v>
+      </c>
+      <c r="C66" s="3">
         <v>42039</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -8676,12 +8597,11 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
-        <f>Visit!B67+10</f>
+      <c r="B67">
+        <v>381</v>
+      </c>
+      <c r="C67" s="3">
         <v>42612</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -8691,12 +8611,11 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
-        <f>Visit!B68+10</f>
+      <c r="B68">
+        <v>987</v>
+      </c>
+      <c r="C68" s="3">
         <v>42764</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -8706,12 +8625,11 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
-        <f>Visit!B69+10</f>
+      <c r="B69">
+        <v>238</v>
+      </c>
+      <c r="C69" s="3">
         <v>39404</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -8721,12 +8639,11 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
-        <f>Visit!B70+10</f>
+      <c r="B70">
+        <v>264</v>
+      </c>
+      <c r="C70" s="3">
         <v>42621</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -8736,12 +8653,11 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
-        <f>Visit!B71+10</f>
+      <c r="B71">
+        <v>239</v>
+      </c>
+      <c r="C71" s="3">
         <v>42028</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -8751,12 +8667,11 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
-        <f>Visit!B72+10</f>
+      <c r="B72">
+        <v>159</v>
+      </c>
+      <c r="C72" s="3">
         <v>40491</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -8766,12 +8681,11 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
-        <f>Visit!B73+10</f>
+      <c r="B73">
+        <v>348</v>
+      </c>
+      <c r="C73" s="3">
         <v>42816</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -8781,12 +8695,11 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
-        <f>Visit!B74+10</f>
+      <c r="B74">
+        <v>262</v>
+      </c>
+      <c r="C74" s="3">
         <v>42682</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -8796,12 +8709,11 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
-        <f>Visit!B75+10</f>
+      <c r="B75">
+        <v>33</v>
+      </c>
+      <c r="C75" s="3">
         <v>40334</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -8811,12 +8723,11 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
-        <f>Visit!B76+10</f>
+      <c r="B76">
+        <v>430</v>
+      </c>
+      <c r="C76" s="3">
         <v>40971</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -8826,12 +8737,11 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
-        <f>Visit!B77+10</f>
+      <c r="B77">
+        <v>914</v>
+      </c>
+      <c r="C77" s="3">
         <v>42045</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -8841,12 +8751,11 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
-        <f>Visit!B78+10</f>
+      <c r="B78">
+        <v>668</v>
+      </c>
+      <c r="C78" s="3">
         <v>40876</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -8856,12 +8765,11 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
-        <f>Visit!B79+10</f>
+      <c r="B79">
+        <v>776</v>
+      </c>
+      <c r="C79" s="3">
         <v>39147</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -8871,12 +8779,11 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
-        <f>Visit!B80+10</f>
+      <c r="B80">
+        <v>346</v>
+      </c>
+      <c r="C80" s="3">
         <v>41364</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -8886,12 +8793,11 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
-        <f>Visit!B81+10</f>
+      <c r="B81">
+        <v>45</v>
+      </c>
+      <c r="C81" s="3">
         <v>42534</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -8901,12 +8807,11 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
-        <f>Visit!B82+10</f>
+      <c r="B82">
+        <v>116</v>
+      </c>
+      <c r="C82" s="3">
         <v>42811</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -8916,12 +8821,11 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
-        <f>Visit!B83+10</f>
+      <c r="B83">
+        <v>591</v>
+      </c>
+      <c r="C83" s="3">
         <v>41585</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -8931,12 +8835,11 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
-        <f>Visit!B84+10</f>
+      <c r="B84">
+        <v>988</v>
+      </c>
+      <c r="C84" s="3">
         <v>40615</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -8946,12 +8849,11 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
-        <f>Visit!B85+10</f>
+      <c r="B85">
+        <v>64</v>
+      </c>
+      <c r="C85" s="3">
         <v>42573</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -8961,12 +8863,11 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
-        <f>Visit!B86+10</f>
+      <c r="B86">
+        <v>751</v>
+      </c>
+      <c r="C86" s="3">
         <v>39362</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -8976,12 +8877,11 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
-        <f>Visit!B87+10</f>
+      <c r="B87">
+        <v>879</v>
+      </c>
+      <c r="C87" s="3">
         <v>42176</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -8991,12 +8891,11 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
-        <f>Visit!B88+10</f>
+      <c r="B88">
+        <v>632</v>
+      </c>
+      <c r="C88" s="3">
         <v>42796</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -9006,12 +8905,11 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
-        <f>Visit!B89+10</f>
+      <c r="B89">
+        <v>532</v>
+      </c>
+      <c r="C89" s="3">
         <v>42298</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -9021,12 +8919,11 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
-        <f>Visit!B90+10</f>
+      <c r="B90">
+        <v>143</v>
+      </c>
+      <c r="C90" s="3">
         <v>41734</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -9036,12 +8933,11 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
-        <f>Visit!B91+10</f>
+      <c r="B91">
+        <v>367</v>
+      </c>
+      <c r="C91" s="3">
         <v>39715</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -9051,12 +8947,11 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
-        <f>Visit!B92+10</f>
+      <c r="B92">
+        <v>167</v>
+      </c>
+      <c r="C92" s="3">
         <v>39168</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -9066,12 +8961,11 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
-        <f>Visit!B93+10</f>
+      <c r="B93">
+        <v>338</v>
+      </c>
+      <c r="C93" s="3">
         <v>42806</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -9081,12 +8975,11 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
-        <f>Visit!B94+10</f>
+      <c r="B94">
+        <v>338</v>
+      </c>
+      <c r="C94" s="3">
         <v>41377</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -9096,12 +8989,11 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="3">
-        <f>Visit!B95+10</f>
+      <c r="B95">
+        <v>328</v>
+      </c>
+      <c r="C95" s="3">
         <v>42706</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -9111,12 +9003,11 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="3">
-        <f>Visit!B96+10</f>
+      <c r="B96">
+        <v>87</v>
+      </c>
+      <c r="C96" s="3">
         <v>42760</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -9126,12 +9017,11 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="3">
-        <f>Visit!B97+10</f>
+      <c r="B97">
+        <v>207</v>
+      </c>
+      <c r="C97" s="3">
         <v>42800</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -9141,12 +9031,11 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="3">
-        <f>Visit!B98+10</f>
+      <c r="B98">
+        <v>828</v>
+      </c>
+      <c r="C98" s="3">
         <v>41187</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -9156,12 +9045,11 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="3">
-        <f>Visit!B99+10</f>
+      <c r="B99">
+        <v>666</v>
+      </c>
+      <c r="C99" s="3">
         <v>42750</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -9171,12 +9059,11 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="3">
-        <f>Visit!B100+10</f>
+      <c r="B100">
+        <v>586</v>
+      </c>
+      <c r="C100" s="3">
         <v>40028</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -9186,12 +9073,11 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="3">
-        <f>Visit!B101+10</f>
+      <c r="B101">
+        <v>170</v>
+      </c>
+      <c r="C101" s="3">
         <v>41416</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -9201,12 +9087,11 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="3">
-        <f>Visit!B102+10</f>
+      <c r="B102">
+        <v>294</v>
+      </c>
+      <c r="C102" s="3">
         <v>41874</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -9216,12 +9101,11 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="3">
-        <f>Visit!B103+10</f>
+      <c r="B103">
+        <v>985</v>
+      </c>
+      <c r="C103" s="3">
         <v>40683</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -9231,12 +9115,11 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="3">
-        <f>Visit!B104+10</f>
+      <c r="B104">
+        <v>967</v>
+      </c>
+      <c r="C104" s="3">
         <v>37239</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -9246,12 +9129,11 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="3">
-        <f>Visit!B105+10</f>
+      <c r="B105">
+        <v>787</v>
+      </c>
+      <c r="C105" s="3">
         <v>42559</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -9261,12 +9143,11 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="3">
-        <f>Visit!B106+10</f>
+      <c r="B106">
+        <v>922</v>
+      </c>
+      <c r="C106" s="3">
         <v>38870</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -9276,12 +9157,11 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="3">
-        <f>Visit!B107+10</f>
+      <c r="B107">
+        <v>453</v>
+      </c>
+      <c r="C107" s="3">
         <v>41985</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -9291,12 +9171,11 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="3">
-        <f>Visit!B108+10</f>
+      <c r="B108">
+        <v>560</v>
+      </c>
+      <c r="C108" s="3">
         <v>41998</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -9306,12 +9185,11 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="3">
-        <f>Visit!B109+10</f>
+      <c r="B109">
+        <v>254</v>
+      </c>
+      <c r="C109" s="3">
         <v>42706</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -9321,12 +9199,11 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="3">
-        <f>Visit!B110+10</f>
+      <c r="B110">
+        <v>980</v>
+      </c>
+      <c r="C110" s="3">
         <v>39946</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -9336,12 +9213,11 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="3">
-        <f>Visit!B111+10</f>
+      <c r="B111">
+        <v>844</v>
+      </c>
+      <c r="C111" s="3">
         <v>39319</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -9351,12 +9227,11 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="3">
-        <f>Visit!B112+10</f>
+      <c r="B112">
+        <v>864</v>
+      </c>
+      <c r="C112" s="3">
         <v>42464</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -9366,12 +9241,11 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="3">
-        <f>Visit!B113+10</f>
+      <c r="B113">
+        <v>394</v>
+      </c>
+      <c r="C113" s="3">
         <v>42514</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -9381,12 +9255,11 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="3">
-        <f>Visit!B114+10</f>
+      <c r="B114">
+        <v>298</v>
+      </c>
+      <c r="C114" s="3">
         <v>42074</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -9396,12 +9269,11 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="3">
-        <f>Visit!B115+10</f>
+      <c r="B115">
+        <v>244</v>
+      </c>
+      <c r="C115" s="3">
         <v>39143</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -9411,12 +9283,11 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="3">
-        <f>Visit!B116+10</f>
+      <c r="B116">
+        <v>876</v>
+      </c>
+      <c r="C116" s="3">
         <v>38172</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -9426,12 +9297,11 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="3">
-        <f>Visit!B117+10</f>
+      <c r="B117">
+        <v>264</v>
+      </c>
+      <c r="C117" s="3">
         <v>38895</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -9441,12 +9311,11 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
-        <f>Visit!B118+10</f>
+      <c r="B118">
+        <v>812</v>
+      </c>
+      <c r="C118" s="3">
         <v>41844</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -9456,12 +9325,11 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="3">
-        <f>Visit!B119+10</f>
+      <c r="B119">
+        <v>92</v>
+      </c>
+      <c r="C119" s="3">
         <v>41391</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -9471,12 +9339,11 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="3">
-        <f>Visit!B120+10</f>
+      <c r="B120">
+        <v>518</v>
+      </c>
+      <c r="C120" s="3">
         <v>42191</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -9486,12 +9353,11 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="3">
-        <f>Visit!B121+10</f>
+      <c r="B121">
+        <v>628</v>
+      </c>
+      <c r="C121" s="3">
         <v>40528</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -9501,12 +9367,11 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="3">
-        <f>Visit!B122+10</f>
+      <c r="B122">
+        <v>538</v>
+      </c>
+      <c r="C122" s="3">
         <v>41131</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -9516,12 +9381,11 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="3">
-        <f>Visit!B123+10</f>
+      <c r="B123">
+        <v>52</v>
+      </c>
+      <c r="C123" s="3">
         <v>41164</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -9531,12 +9395,11 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="3">
-        <f>Visit!B124+10</f>
+      <c r="B124">
+        <v>92</v>
+      </c>
+      <c r="C124" s="3">
         <v>41689</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -9546,12 +9409,11 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="3">
-        <f>Visit!B125+10</f>
+      <c r="B125">
+        <v>831</v>
+      </c>
+      <c r="C125" s="3">
         <v>42718</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -9561,12 +9423,11 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="3">
-        <f>Visit!B126+10</f>
+      <c r="B126">
+        <v>258</v>
+      </c>
+      <c r="C126" s="3">
         <v>42742</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -9576,12 +9437,11 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="3">
-        <f>Visit!B127+10</f>
+      <c r="B127">
+        <v>244</v>
+      </c>
+      <c r="C127" s="3">
         <v>42466</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -9591,12 +9451,11 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="3">
-        <f>Visit!B128+10</f>
+      <c r="B128">
+        <v>965</v>
+      </c>
+      <c r="C128" s="3">
         <v>39894</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -9606,12 +9465,11 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="3">
-        <f>Visit!B129+10</f>
+      <c r="B129">
+        <v>721</v>
+      </c>
+      <c r="C129" s="3">
         <v>39802</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -9621,12 +9479,11 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="3">
-        <f>Visit!B130+10</f>
+      <c r="B130">
+        <v>384</v>
+      </c>
+      <c r="C130" s="3">
         <v>42794</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -9636,12 +9493,11 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="3">
-        <f>Visit!B131+10</f>
+      <c r="B131">
+        <v>288</v>
+      </c>
+      <c r="C131" s="3">
         <v>42054</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -9651,12 +9507,11 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="3">
-        <f>Visit!B132+10</f>
+      <c r="B132">
+        <v>908</v>
+      </c>
+      <c r="C132" s="3">
         <v>42758</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -9666,12 +9521,11 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="3">
-        <f>Visit!B133+10</f>
+      <c r="B133">
+        <v>954</v>
+      </c>
+      <c r="C133" s="3">
         <v>42762</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -9681,12 +9535,11 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="3">
-        <f>Visit!B134+10</f>
+      <c r="B134">
+        <v>27</v>
+      </c>
+      <c r="C134" s="3">
         <v>41298</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -9696,12 +9549,11 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="3">
-        <f>Visit!B135+10</f>
+      <c r="B135">
+        <v>404</v>
+      </c>
+      <c r="C135" s="3">
         <v>38457</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -9711,12 +9563,11 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="3">
-        <f>Visit!B136+10</f>
+      <c r="B136">
+        <v>926</v>
+      </c>
+      <c r="C136" s="3">
         <v>40668</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -9726,12 +9577,11 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="3">
-        <f>Visit!B137+10</f>
+      <c r="B137">
+        <v>864</v>
+      </c>
+      <c r="C137" s="3">
         <v>42714</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -9741,12 +9591,11 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="3">
-        <f>Visit!B138+10</f>
+      <c r="B138">
+        <v>698</v>
+      </c>
+      <c r="C138" s="3">
         <v>40510</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -9756,12 +9605,11 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="3">
-        <f>Visit!B139+10</f>
+      <c r="B139">
+        <v>172</v>
+      </c>
+      <c r="C139" s="3">
         <v>40620</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -9771,12 +9619,11 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="3">
-        <f>Visit!B140+10</f>
+      <c r="B140">
+        <v>399</v>
+      </c>
+      <c r="C140" s="3">
         <v>40707</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -9786,12 +9633,11 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="3">
-        <f>Visit!B141+10</f>
+      <c r="B141">
+        <v>154</v>
+      </c>
+      <c r="C141" s="3">
         <v>41450</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -9801,12 +9647,11 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="3">
-        <f>Visit!B142+10</f>
+      <c r="B142">
+        <v>886</v>
+      </c>
+      <c r="C142" s="3">
         <v>42434</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -9816,12 +9661,11 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="3">
-        <f>Visit!B143+10</f>
+      <c r="B143">
+        <v>550</v>
+      </c>
+      <c r="C143" s="3">
         <v>40446</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -9831,12 +9675,11 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="3">
-        <f>Visit!B144+10</f>
+      <c r="B144">
+        <v>311</v>
+      </c>
+      <c r="C144" s="3">
         <v>40939</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -9846,12 +9689,11 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="3">
-        <f>Visit!B145+10</f>
+      <c r="B145">
+        <v>746</v>
+      </c>
+      <c r="C145" s="3">
         <v>39570</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -9861,12 +9703,11 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="3">
-        <f>Visit!B146+10</f>
+      <c r="B146">
+        <v>984</v>
+      </c>
+      <c r="C146" s="3">
         <v>41463</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -9876,12 +9717,11 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="3">
-        <f>Visit!B147+10</f>
+      <c r="B147">
+        <v>104</v>
+      </c>
+      <c r="C147" s="3">
         <v>41544</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -9891,12 +9731,11 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="3">
-        <f>Visit!B148+10</f>
+      <c r="B148">
+        <v>533</v>
+      </c>
+      <c r="C148" s="3">
         <v>41831</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -9906,12 +9745,11 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="3">
-        <f>Visit!B149+10</f>
+      <c r="B149">
+        <v>525</v>
+      </c>
+      <c r="C149" s="3">
         <v>40154</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -9921,12 +9759,11 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="3">
-        <f>Visit!B150+10</f>
+      <c r="B150">
+        <v>858</v>
+      </c>
+      <c r="C150" s="3">
         <v>40955</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -9936,12 +9773,11 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="3">
-        <f>Visit!B151+10</f>
+      <c r="B151">
+        <v>913</v>
+      </c>
+      <c r="C151" s="3">
         <v>42652</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -9951,12 +9787,11 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="3">
-        <f>Visit!B152+10</f>
+      <c r="B152">
+        <v>520</v>
+      </c>
+      <c r="C152" s="3">
         <v>41231</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -9966,12 +9801,11 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="3">
-        <f>Visit!B153+10</f>
+      <c r="B153">
+        <v>640</v>
+      </c>
+      <c r="C153" s="3">
         <v>42653</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -9981,12 +9815,11 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="3">
-        <f>Visit!B154+10</f>
+      <c r="B154">
+        <v>298</v>
+      </c>
+      <c r="C154" s="3">
         <v>41729</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -9996,12 +9829,11 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="3">
-        <f>Visit!B155+10</f>
+      <c r="B155">
+        <v>973</v>
+      </c>
+      <c r="C155" s="3">
         <v>42720</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -10011,12 +9843,11 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="3">
-        <f>Visit!B156+10</f>
+      <c r="B156">
+        <v>844</v>
+      </c>
+      <c r="C156" s="3">
         <v>41342</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -10026,12 +9857,11 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="3">
-        <f>Visit!B157+10</f>
+      <c r="B157">
+        <v>719</v>
+      </c>
+      <c r="C157" s="3">
         <v>36810</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -10041,12 +9871,11 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="3">
-        <f>Visit!B158+10</f>
+      <c r="B158">
+        <v>328</v>
+      </c>
+      <c r="C158" s="3">
         <v>39026</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -10056,12 +9885,11 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="3">
-        <f>Visit!B159+10</f>
+      <c r="B159">
+        <v>289</v>
+      </c>
+      <c r="C159" s="3">
         <v>42741</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -10071,12 +9899,11 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="3">
-        <f>Visit!B160+10</f>
+      <c r="B160">
+        <v>132</v>
+      </c>
+      <c r="C160" s="3">
         <v>40683</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -10086,12 +9913,11 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="3">
-        <f>Visit!B161+10</f>
+      <c r="B161">
+        <v>555</v>
+      </c>
+      <c r="C161" s="3">
         <v>42741</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -10101,12 +9927,11 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="3">
-        <f>Visit!B162+10</f>
+      <c r="B162">
+        <v>424</v>
+      </c>
+      <c r="C162" s="3">
         <v>42038</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -10116,12 +9941,11 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="3">
-        <f>Visit!B163+10</f>
+      <c r="B163">
+        <v>571</v>
+      </c>
+      <c r="C163" s="3">
         <v>42492</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -10131,12 +9955,11 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="3">
-        <f>Visit!B164+10</f>
+      <c r="B164">
+        <v>607</v>
+      </c>
+      <c r="C164" s="3">
         <v>42051</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -10146,12 +9969,11 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="3">
-        <f>Visit!B165+10</f>
+      <c r="B165">
+        <v>738</v>
+      </c>
+      <c r="C165" s="3">
         <v>40479</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -10161,12 +9983,11 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="3">
-        <f>Visit!B166+10</f>
+      <c r="B166">
+        <v>289</v>
+      </c>
+      <c r="C166" s="3">
         <v>42830</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -10176,12 +9997,11 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="3">
-        <f>Visit!B167+10</f>
+      <c r="B167">
+        <v>770</v>
+      </c>
+      <c r="C167" s="3">
         <v>42333</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -10191,12 +10011,11 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="3">
-        <f>Visit!B168+10</f>
+      <c r="B168">
+        <v>357</v>
+      </c>
+      <c r="C168" s="3">
         <v>42643</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -10206,12 +10025,11 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="3">
-        <f>Visit!B169+10</f>
+      <c r="B169">
+        <v>527</v>
+      </c>
+      <c r="C169" s="3">
         <v>41520</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -10221,12 +10039,11 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="3">
-        <f>Visit!B170+10</f>
+      <c r="B170">
+        <v>350</v>
+      </c>
+      <c r="C170" s="3">
         <v>42413</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -10236,12 +10053,11 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="3">
-        <f>Visit!B171+10</f>
+      <c r="B171">
+        <v>275</v>
+      </c>
+      <c r="C171" s="3">
         <v>42575</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -10251,12 +10067,11 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="3">
-        <f>Visit!B172+10</f>
+      <c r="B172">
+        <v>59</v>
+      </c>
+      <c r="C172" s="3">
         <v>38227</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -10266,12 +10081,11 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="3">
-        <f>Visit!B173+10</f>
+      <c r="B173">
+        <v>424</v>
+      </c>
+      <c r="C173" s="3">
         <v>41671</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -10281,12 +10095,11 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="3">
-        <f>Visit!B174+10</f>
+      <c r="B174">
+        <v>754</v>
+      </c>
+      <c r="C174" s="3">
         <v>39817</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -10296,12 +10109,11 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="3">
-        <f>Visit!B175+10</f>
+      <c r="B175">
+        <v>278</v>
+      </c>
+      <c r="C175" s="3">
         <v>41043</v>
-      </c>
-      <c r="C175">
-        <v>1</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -10311,12 +10123,11 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="3">
-        <f>Visit!B176+10</f>
+      <c r="B176">
+        <v>793</v>
+      </c>
+      <c r="C176" s="3">
         <v>37479</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -10326,12 +10137,11 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="3">
-        <f>Visit!B177+10</f>
+      <c r="B177">
+        <v>392</v>
+      </c>
+      <c r="C177" s="3">
         <v>40499</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -10341,12 +10151,11 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="3">
-        <f>Visit!B178+10</f>
+      <c r="B178">
+        <v>758</v>
+      </c>
+      <c r="C178" s="3">
         <v>41087</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -10356,12 +10165,11 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="3">
-        <f>Visit!B179+10</f>
+      <c r="B179">
+        <v>967</v>
+      </c>
+      <c r="C179" s="3">
         <v>41292</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -10371,12 +10179,11 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="3">
-        <f>Visit!B180+10</f>
+      <c r="B180">
+        <v>483</v>
+      </c>
+      <c r="C180" s="3">
         <v>39787</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -10386,12 +10193,11 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="3">
-        <f>Visit!B181+10</f>
+      <c r="B181">
+        <v>431</v>
+      </c>
+      <c r="C181" s="3">
         <v>42795</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -10401,12 +10207,11 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="3">
-        <f>Visit!B182+10</f>
+      <c r="B182">
+        <v>102</v>
+      </c>
+      <c r="C182" s="3">
         <v>42094</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -10416,12 +10221,11 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="3">
-        <f>Visit!B183+10</f>
+      <c r="B183">
+        <v>665</v>
+      </c>
+      <c r="C183" s="3">
         <v>39546</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -10431,12 +10235,11 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="3">
-        <f>Visit!B184+10</f>
+      <c r="B184">
+        <v>669</v>
+      </c>
+      <c r="C184" s="3">
         <v>42796</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -10446,12 +10249,11 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="3">
-        <f>Visit!B185+10</f>
+      <c r="B185">
+        <v>100</v>
+      </c>
+      <c r="C185" s="3">
         <v>39157</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -10461,12 +10263,11 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="3">
-        <f>Visit!B186+10</f>
+      <c r="B186">
+        <v>862</v>
+      </c>
+      <c r="C186" s="3">
         <v>39557</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -10476,12 +10277,11 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="3">
-        <f>Visit!B187+10</f>
+      <c r="B187">
+        <v>128</v>
+      </c>
+      <c r="C187" s="3">
         <v>39875</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -10491,12 +10291,11 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="3">
-        <f>Visit!B188+10</f>
+      <c r="B188">
+        <v>994</v>
+      </c>
+      <c r="C188" s="3">
         <v>38635</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -10506,12 +10305,11 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="3">
-        <f>Visit!B189+10</f>
+      <c r="B189">
+        <v>867</v>
+      </c>
+      <c r="C189" s="3">
         <v>41517</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -10521,12 +10319,11 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="3">
-        <f>Visit!B190+10</f>
+      <c r="B190">
+        <v>298</v>
+      </c>
+      <c r="C190" s="3">
         <v>42080</v>
-      </c>
-      <c r="C190">
-        <v>1</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -10536,12 +10333,11 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="3">
-        <f>Visit!B191+10</f>
+      <c r="B191">
+        <v>792</v>
+      </c>
+      <c r="C191" s="3">
         <v>41190</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -10551,12 +10347,11 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="3">
-        <f>Visit!B192+10</f>
+      <c r="B192">
+        <v>445</v>
+      </c>
+      <c r="C192" s="3">
         <v>42664</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -10566,12 +10361,11 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="3">
-        <f>Visit!B193+10</f>
+      <c r="B193">
+        <v>968</v>
+      </c>
+      <c r="C193" s="3">
         <v>39577</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -10581,12 +10375,11 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="3">
-        <f>Visit!B194+10</f>
+      <c r="B194">
+        <v>349</v>
+      </c>
+      <c r="C194" s="3">
         <v>42045</v>
-      </c>
-      <c r="C194">
-        <v>1</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -10596,12 +10389,11 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="3">
-        <f>Visit!B195+10</f>
+      <c r="B195">
+        <v>491</v>
+      </c>
+      <c r="C195" s="3">
         <v>42829</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -10611,12 +10403,11 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="3">
-        <f>Visit!B196+10</f>
+      <c r="B196">
+        <v>357</v>
+      </c>
+      <c r="C196" s="3">
         <v>41580</v>
-      </c>
-      <c r="C196">
-        <v>0</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -10626,12 +10417,11 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="3">
-        <f>Visit!B197+10</f>
+      <c r="B197">
+        <v>972</v>
+      </c>
+      <c r="C197" s="3">
         <v>40259</v>
-      </c>
-      <c r="C197">
-        <v>1</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -10641,12 +10431,11 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="3">
-        <f>Visit!B198+10</f>
+      <c r="B198">
+        <v>378</v>
+      </c>
+      <c r="C198" s="3">
         <v>42441</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -10656,12 +10445,11 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="3">
-        <f>Visit!B199+10</f>
+      <c r="B199">
+        <v>865</v>
+      </c>
+      <c r="C199" s="3">
         <v>40989</v>
-      </c>
-      <c r="C199">
-        <v>1</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -10671,12 +10459,11 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="3">
-        <f>Visit!B200+10</f>
+      <c r="B200">
+        <v>677</v>
+      </c>
+      <c r="C200" s="3">
         <v>40451</v>
-      </c>
-      <c r="C200">
-        <v>0</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -10686,12 +10473,11 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="3">
-        <f>Visit!B201+10</f>
+      <c r="B201">
+        <v>104</v>
+      </c>
+      <c r="C201" s="3">
         <v>42836</v>
-      </c>
-      <c r="C201">
-        <v>0</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -10701,12 +10487,11 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="3">
-        <f>Visit!B202+10</f>
+      <c r="B202">
+        <v>92</v>
+      </c>
+      <c r="C202" s="3">
         <v>39572</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -10716,12 +10501,11 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="3">
-        <f>Visit!B203+10</f>
+      <c r="B203">
+        <v>408</v>
+      </c>
+      <c r="C203" s="3">
         <v>41550</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -10731,12 +10515,11 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="3">
-        <f>Visit!B204+10</f>
+      <c r="B204">
+        <v>405</v>
+      </c>
+      <c r="C204" s="3">
         <v>42248</v>
-      </c>
-      <c r="C204">
-        <v>0</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -10746,12 +10529,11 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="3">
-        <f>Visit!B205+10</f>
+      <c r="B205">
+        <v>41</v>
+      </c>
+      <c r="C205" s="3">
         <v>39378</v>
-      </c>
-      <c r="C205">
-        <v>1</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -10761,12 +10543,11 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="3">
-        <f>Visit!B206+10</f>
+      <c r="B206">
+        <v>663</v>
+      </c>
+      <c r="C206" s="3">
         <v>42365</v>
-      </c>
-      <c r="C206">
-        <v>0</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -10776,12 +10557,11 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="3">
-        <f>Visit!B207+10</f>
+      <c r="B207">
+        <v>72</v>
+      </c>
+      <c r="C207" s="3">
         <v>42757</v>
-      </c>
-      <c r="C207">
-        <v>1</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -10791,12 +10571,11 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="3">
-        <f>Visit!B208+10</f>
+      <c r="B208">
+        <v>719</v>
+      </c>
+      <c r="C208" s="3">
         <v>39027</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -10806,12 +10585,11 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="3">
-        <f>Visit!B209+10</f>
+      <c r="B209">
+        <v>730</v>
+      </c>
+      <c r="C209" s="3">
         <v>40878</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -10821,12 +10599,11 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="3">
-        <f>Visit!B210+10</f>
+      <c r="B210">
+        <v>917</v>
+      </c>
+      <c r="C210" s="3">
         <v>42498</v>
-      </c>
-      <c r="C210">
-        <v>1</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -10836,12 +10613,11 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="3">
-        <f>Visit!B211+10</f>
+      <c r="B211">
+        <v>478</v>
+      </c>
+      <c r="C211" s="3">
         <v>42331</v>
-      </c>
-      <c r="C211">
-        <v>0</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -10851,12 +10627,11 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="3">
-        <f>Visit!B212+10</f>
+      <c r="B212">
+        <v>572</v>
+      </c>
+      <c r="C212" s="3">
         <v>40784</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -10866,12 +10641,11 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="3">
-        <f>Visit!B213+10</f>
+      <c r="B213">
+        <v>436</v>
+      </c>
+      <c r="C213" s="3">
         <v>42735</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -10881,12 +10655,11 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="3">
-        <f>Visit!B214+10</f>
+      <c r="B214">
+        <v>835</v>
+      </c>
+      <c r="C214" s="3">
         <v>42726</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -10896,12 +10669,11 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="3">
-        <f>Visit!B215+10</f>
+      <c r="B215">
+        <v>295</v>
+      </c>
+      <c r="C215" s="3">
         <v>41135</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -10911,12 +10683,11 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="3">
-        <f>Visit!B216+10</f>
+      <c r="B216">
+        <v>946</v>
+      </c>
+      <c r="C216" s="3">
         <v>40825</v>
-      </c>
-      <c r="C216">
-        <v>0</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -10926,12 +10697,11 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="3">
-        <f>Visit!B217+10</f>
+      <c r="B217">
+        <v>429</v>
+      </c>
+      <c r="C217" s="3">
         <v>42814</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -10941,12 +10711,11 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="3">
-        <f>Visit!B218+10</f>
+      <c r="B218">
+        <v>150</v>
+      </c>
+      <c r="C218" s="3">
         <v>39826</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -10956,12 +10725,11 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="3">
-        <f>Visit!B219+10</f>
+      <c r="B219">
+        <v>365</v>
+      </c>
+      <c r="C219" s="3">
         <v>40803</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -10971,12 +10739,11 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="3">
-        <f>Visit!B220+10</f>
+      <c r="B220">
+        <v>940</v>
+      </c>
+      <c r="C220" s="3">
         <v>42396</v>
-      </c>
-      <c r="C220">
-        <v>0</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -10986,12 +10753,11 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="3">
-        <f>Visit!B221+10</f>
+      <c r="B221">
+        <v>70</v>
+      </c>
+      <c r="C221" s="3">
         <v>41432</v>
-      </c>
-      <c r="C221">
-        <v>1</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -11001,12 +10767,11 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="3">
-        <f>Visit!B222+10</f>
+      <c r="B222">
+        <v>896</v>
+      </c>
+      <c r="C222" s="3">
         <v>40573</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -11016,12 +10781,11 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="3">
-        <f>Visit!B223+10</f>
+      <c r="B223">
+        <v>737</v>
+      </c>
+      <c r="C223" s="3">
         <v>42421</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -11031,12 +10795,11 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="3">
-        <f>Visit!B224+10</f>
+      <c r="B224">
+        <v>428</v>
+      </c>
+      <c r="C224" s="3">
         <v>41731</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -11046,12 +10809,11 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="3">
-        <f>Visit!B225+10</f>
+      <c r="B225">
+        <v>262</v>
+      </c>
+      <c r="C225" s="3">
         <v>42394</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -11061,12 +10823,11 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="3">
-        <f>Visit!B226+10</f>
+      <c r="B226">
+        <v>183</v>
+      </c>
+      <c r="C226" s="3">
         <v>40071</v>
-      </c>
-      <c r="C226">
-        <v>1</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -11076,12 +10837,11 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="3">
-        <f>Visit!B227+10</f>
+      <c r="B227">
+        <v>659</v>
+      </c>
+      <c r="C227" s="3">
         <v>42721</v>
-      </c>
-      <c r="C227">
-        <v>0</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -11091,12 +10851,11 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="3">
-        <f>Visit!B228+10</f>
+      <c r="B228">
+        <v>533</v>
+      </c>
+      <c r="C228" s="3">
         <v>39802</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -11106,12 +10865,11 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="3">
-        <f>Visit!B229+10</f>
+      <c r="B229">
+        <v>819</v>
+      </c>
+      <c r="C229" s="3">
         <v>42360</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -11121,12 +10879,11 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="3">
-        <f>Visit!B230+10</f>
+      <c r="B230">
+        <v>418</v>
+      </c>
+      <c r="C230" s="3">
         <v>38087</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -11136,12 +10893,11 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="3">
-        <f>Visit!B231+10</f>
+      <c r="B231">
+        <v>682</v>
+      </c>
+      <c r="C231" s="3">
         <v>42721</v>
-      </c>
-      <c r="C231">
-        <v>0</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -11151,12 +10907,11 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="3">
-        <f>Visit!B232+10</f>
+      <c r="B232">
+        <v>805</v>
+      </c>
+      <c r="C232" s="3">
         <v>42745</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -11166,12 +10921,11 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="3">
-        <f>Visit!B233+10</f>
+      <c r="B233">
+        <v>500</v>
+      </c>
+      <c r="C233" s="3">
         <v>39285</v>
-      </c>
-      <c r="C233">
-        <v>0</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -11181,12 +10935,11 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="3">
-        <f>Visit!B234+10</f>
+      <c r="B234">
+        <v>53</v>
+      </c>
+      <c r="C234" s="3">
         <v>42535</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -11196,12 +10949,11 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="3">
-        <f>Visit!B235+10</f>
+      <c r="B235">
+        <v>860</v>
+      </c>
+      <c r="C235" s="3">
         <v>39633</v>
-      </c>
-      <c r="C235">
-        <v>0</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -11211,12 +10963,11 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="3">
-        <f>Visit!B236+10</f>
+      <c r="B236">
+        <v>561</v>
+      </c>
+      <c r="C236" s="3">
         <v>39524</v>
-      </c>
-      <c r="C236">
-        <v>0</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -11226,12 +10977,11 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="3">
-        <f>Visit!B237+10</f>
+      <c r="B237">
+        <v>401</v>
+      </c>
+      <c r="C237" s="3">
         <v>41188</v>
-      </c>
-      <c r="C237">
-        <v>1</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -11241,12 +10991,11 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="3">
-        <f>Visit!B238+10</f>
+      <c r="B238">
+        <v>308</v>
+      </c>
+      <c r="C238" s="3">
         <v>39453</v>
-      </c>
-      <c r="C238">
-        <v>0</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -11256,12 +11005,11 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="3">
-        <f>Visit!B239+10</f>
+      <c r="B239">
+        <v>704</v>
+      </c>
+      <c r="C239" s="3">
         <v>37405</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -11271,12 +11019,11 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="3">
-        <f>Visit!B240+10</f>
+      <c r="B240">
+        <v>111</v>
+      </c>
+      <c r="C240" s="3">
         <v>41610</v>
-      </c>
-      <c r="C240">
-        <v>0</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -11286,12 +11033,11 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="3">
-        <f>Visit!B241+10</f>
+      <c r="B241">
+        <v>298</v>
+      </c>
+      <c r="C241" s="3">
         <v>42590</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -11301,12 +11047,11 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="3">
-        <f>Visit!B242+10</f>
+      <c r="B242">
+        <v>211</v>
+      </c>
+      <c r="C242" s="3">
         <v>42750</v>
-      </c>
-      <c r="C242">
-        <v>0</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -11316,12 +11061,11 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="3">
-        <f>Visit!B243+10</f>
+      <c r="B243">
+        <v>573</v>
+      </c>
+      <c r="C243" s="3">
         <v>40120</v>
-      </c>
-      <c r="C243">
-        <v>0</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -11331,12 +11075,11 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="3">
-        <f>Visit!B244+10</f>
+      <c r="B244">
+        <v>249</v>
+      </c>
+      <c r="C244" s="3">
         <v>39709</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -11346,12 +11089,11 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="3">
-        <f>Visit!B245+10</f>
+      <c r="B245">
+        <v>548</v>
+      </c>
+      <c r="C245" s="3">
         <v>41274</v>
-      </c>
-      <c r="C245">
-        <v>0</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -11361,12 +11103,11 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="3">
-        <f>Visit!B246+10</f>
+      <c r="B246">
+        <v>629</v>
+      </c>
+      <c r="C246" s="3">
         <v>42132</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -11376,12 +11117,11 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="3">
-        <f>Visit!B247+10</f>
+      <c r="B247">
+        <v>760</v>
+      </c>
+      <c r="C247" s="3">
         <v>40235</v>
-      </c>
-      <c r="C247">
-        <v>0</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -11391,12 +11131,11 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="3">
-        <f>Visit!B248+10</f>
+      <c r="B248">
+        <v>931</v>
+      </c>
+      <c r="C248" s="3">
         <v>39187</v>
-      </c>
-      <c r="C248">
-        <v>0</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -11406,12 +11145,11 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="3">
-        <f>Visit!B249+10</f>
+      <c r="B249">
+        <v>691</v>
+      </c>
+      <c r="C249" s="3">
         <v>41670</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -11421,12 +11159,11 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="3">
-        <f>Visit!B250+10</f>
+      <c r="B250">
+        <v>108</v>
+      </c>
+      <c r="C250" s="3">
         <v>41237</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -11436,12 +11173,11 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="3">
-        <f>Visit!B251+10</f>
+      <c r="B251">
+        <v>506</v>
+      </c>
+      <c r="C251" s="3">
         <v>41305</v>
-      </c>
-      <c r="C251">
-        <v>0</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -11451,12 +11187,11 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="3">
-        <f>Visit!B252+10</f>
+      <c r="B252">
+        <v>192</v>
+      </c>
+      <c r="C252" s="3">
         <v>41552</v>
-      </c>
-      <c r="C252">
-        <v>0</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -11466,12 +11201,11 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="3">
-        <f>Visit!B253+10</f>
+      <c r="B253">
+        <v>659</v>
+      </c>
+      <c r="C253" s="3">
         <v>39420</v>
-      </c>
-      <c r="C253">
-        <v>0</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -11481,12 +11215,11 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="3">
-        <f>Visit!B254+10</f>
+      <c r="B254">
+        <v>419</v>
+      </c>
+      <c r="C254" s="3">
         <v>42785</v>
-      </c>
-      <c r="C254">
-        <v>0</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -11496,12 +11229,11 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="3">
-        <f>Visit!B255+10</f>
+      <c r="B255">
+        <v>655</v>
+      </c>
+      <c r="C255" s="3">
         <v>40500</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -11511,12 +11243,11 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="3">
-        <f>Visit!B256+10</f>
+      <c r="B256">
+        <v>246</v>
+      </c>
+      <c r="C256" s="3">
         <v>41135</v>
-      </c>
-      <c r="C256">
-        <v>0</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -11526,12 +11257,11 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="3">
-        <f>Visit!B257+10</f>
+      <c r="B257">
+        <v>415</v>
+      </c>
+      <c r="C257" s="3">
         <v>42042</v>
-      </c>
-      <c r="C257">
-        <v>1</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -11541,12 +11271,11 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="3">
-        <f>Visit!B258+10</f>
+      <c r="B258">
+        <v>755</v>
+      </c>
+      <c r="C258" s="3">
         <v>40717</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -11556,12 +11285,11 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="3">
-        <f>Visit!B259+10</f>
+      <c r="B259">
+        <v>410</v>
+      </c>
+      <c r="C259" s="3">
         <v>40057</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -11571,12 +11299,11 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="3">
-        <f>Visit!B260+10</f>
+      <c r="B260">
+        <v>149</v>
+      </c>
+      <c r="C260" s="3">
         <v>41207</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -11586,12 +11313,11 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="3">
-        <f>Visit!B261+10</f>
+      <c r="B261">
+        <v>122</v>
+      </c>
+      <c r="C261" s="3">
         <v>41288</v>
-      </c>
-      <c r="C261">
-        <v>1</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -11601,12 +11327,11 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="3">
-        <f>Visit!B262+10</f>
+      <c r="B262">
+        <v>956</v>
+      </c>
+      <c r="C262" s="3">
         <v>39347</v>
-      </c>
-      <c r="C262">
-        <v>0</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -11616,12 +11341,11 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="3">
-        <f>Visit!B263+10</f>
+      <c r="B263">
+        <v>673</v>
+      </c>
+      <c r="C263" s="3">
         <v>37601</v>
-      </c>
-      <c r="C263">
-        <v>1</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -11631,12 +11355,11 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="3">
-        <f>Visit!B264+10</f>
+      <c r="B264">
+        <v>188</v>
+      </c>
+      <c r="C264" s="3">
         <v>39846</v>
-      </c>
-      <c r="C264">
-        <v>1</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -11646,12 +11369,11 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="3">
-        <f>Visit!B265+10</f>
+      <c r="B265">
+        <v>763</v>
+      </c>
+      <c r="C265" s="3">
         <v>41558</v>
-      </c>
-      <c r="C265">
-        <v>1</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -11661,12 +11383,11 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="3">
-        <f>Visit!B266+10</f>
+      <c r="B266">
+        <v>941</v>
+      </c>
+      <c r="C266" s="3">
         <v>40994</v>
-      </c>
-      <c r="C266">
-        <v>1</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -11676,12 +11397,11 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="3">
-        <f>Visit!B267+10</f>
+      <c r="B267">
+        <v>456</v>
+      </c>
+      <c r="C267" s="3">
         <v>42580</v>
-      </c>
-      <c r="C267">
-        <v>0</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -11691,12 +11411,11 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="3">
-        <f>Visit!B268+10</f>
+      <c r="B268">
+        <v>531</v>
+      </c>
+      <c r="C268" s="3">
         <v>41854</v>
-      </c>
-      <c r="C268">
-        <v>0</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -11706,12 +11425,11 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="3">
-        <f>Visit!B269+10</f>
+      <c r="B269">
+        <v>415</v>
+      </c>
+      <c r="C269" s="3">
         <v>41678</v>
-      </c>
-      <c r="C269">
-        <v>0</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -11721,12 +11439,11 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="3">
-        <f>Visit!B270+10</f>
+      <c r="B270">
+        <v>800</v>
+      </c>
+      <c r="C270" s="3">
         <v>42724</v>
-      </c>
-      <c r="C270">
-        <v>0</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -11736,12 +11453,11 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="3">
-        <f>Visit!B271+10</f>
+      <c r="B271">
+        <v>627</v>
+      </c>
+      <c r="C271" s="3">
         <v>38348</v>
-      </c>
-      <c r="C271">
-        <v>0</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -11751,12 +11467,11 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="3">
-        <f>Visit!B272+10</f>
+      <c r="B272">
+        <v>970</v>
+      </c>
+      <c r="C272" s="3">
         <v>42140</v>
-      </c>
-      <c r="C272">
-        <v>0</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -11766,12 +11481,11 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="3">
-        <f>Visit!B273+10</f>
+      <c r="B273">
+        <v>52</v>
+      </c>
+      <c r="C273" s="3">
         <v>39872</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -11781,12 +11495,11 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="3">
-        <f>Visit!B274+10</f>
+      <c r="B274">
+        <v>738</v>
+      </c>
+      <c r="C274" s="3">
         <v>42716</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -11796,12 +11509,11 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="3">
-        <f>Visit!B275+10</f>
+      <c r="B275">
+        <v>84</v>
+      </c>
+      <c r="C275" s="3">
         <v>40402</v>
-      </c>
-      <c r="C275">
-        <v>0</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -11811,12 +11523,11 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="3">
-        <f>Visit!B276+10</f>
+      <c r="B276">
+        <v>849</v>
+      </c>
+      <c r="C276" s="3">
         <v>41430</v>
-      </c>
-      <c r="C276">
-        <v>0</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -11826,12 +11537,11 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="3">
-        <f>Visit!B277+10</f>
+      <c r="B277">
+        <v>305</v>
+      </c>
+      <c r="C277" s="3">
         <v>41449</v>
-      </c>
-      <c r="C277">
-        <v>1</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -11841,12 +11551,11 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="3">
-        <f>Visit!B278+10</f>
+      <c r="B278">
+        <v>349</v>
+      </c>
+      <c r="C278" s="3">
         <v>39577</v>
-      </c>
-      <c r="C278">
-        <v>1</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -11856,12 +11565,11 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="3">
-        <f>Visit!B279+10</f>
+      <c r="B279">
+        <v>432</v>
+      </c>
+      <c r="C279" s="3">
         <v>41896</v>
-      </c>
-      <c r="C279">
-        <v>1</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -11871,12 +11579,11 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="3">
-        <f>Visit!B280+10</f>
+      <c r="B280">
+        <v>44</v>
+      </c>
+      <c r="C280" s="3">
         <v>38195</v>
-      </c>
-      <c r="C280">
-        <v>0</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -11886,12 +11593,11 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="3">
-        <f>Visit!B281+10</f>
+      <c r="B281">
+        <v>102</v>
+      </c>
+      <c r="C281" s="3">
         <v>42757</v>
-      </c>
-      <c r="C281">
-        <v>1</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -11901,12 +11607,11 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="3">
-        <f>Visit!B282+10</f>
+      <c r="B282">
+        <v>229</v>
+      </c>
+      <c r="C282" s="3">
         <v>40960</v>
-      </c>
-      <c r="C282">
-        <v>0</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -11916,12 +11621,11 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="3">
-        <f>Visit!B283+10</f>
+      <c r="B283">
+        <v>628</v>
+      </c>
+      <c r="C283" s="3">
         <v>42735</v>
-      </c>
-      <c r="C283">
-        <v>0</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -11931,12 +11635,11 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="3">
-        <f>Visit!B284+10</f>
+      <c r="B284">
+        <v>602</v>
+      </c>
+      <c r="C284" s="3">
         <v>42429</v>
-      </c>
-      <c r="C284">
-        <v>0</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -11946,12 +11649,11 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="3">
-        <f>Visit!B285+10</f>
+      <c r="B285">
+        <v>903</v>
+      </c>
+      <c r="C285" s="3">
         <v>40292</v>
-      </c>
-      <c r="C285">
-        <v>1</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -11961,12 +11663,11 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="3">
-        <f>Visit!B286+10</f>
+      <c r="B286">
+        <v>952</v>
+      </c>
+      <c r="C286" s="3">
         <v>37036</v>
-      </c>
-      <c r="C286">
-        <v>1</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -11976,12 +11677,11 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="3">
-        <f>Visit!B287+10</f>
+      <c r="B287">
+        <v>952</v>
+      </c>
+      <c r="C287" s="3">
         <v>40342</v>
-      </c>
-      <c r="C287">
-        <v>0</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -11991,12 +11691,11 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="3">
-        <f>Visit!B288+10</f>
+      <c r="B288">
+        <v>594</v>
+      </c>
+      <c r="C288" s="3">
         <v>40726</v>
-      </c>
-      <c r="C288">
-        <v>0</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -12006,12 +11705,11 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="3">
-        <f>Visit!B289+10</f>
+      <c r="B289">
+        <v>264</v>
+      </c>
+      <c r="C289" s="3">
         <v>42827</v>
-      </c>
-      <c r="C289">
-        <v>0</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -12021,12 +11719,11 @@
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="3">
-        <f>Visit!B290+10</f>
+      <c r="B290">
+        <v>497</v>
+      </c>
+      <c r="C290" s="3">
         <v>41111</v>
-      </c>
-      <c r="C290">
-        <v>1</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -12036,12 +11733,11 @@
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="3">
-        <f>Visit!B291+10</f>
+      <c r="B291">
+        <v>253</v>
+      </c>
+      <c r="C291" s="3">
         <v>42804</v>
-      </c>
-      <c r="C291">
-        <v>1</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -12051,12 +11747,11 @@
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="3">
-        <f>Visit!B292+10</f>
+      <c r="B292">
+        <v>493</v>
+      </c>
+      <c r="C292" s="3">
         <v>42597</v>
-      </c>
-      <c r="C292">
-        <v>0</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -12066,12 +11761,11 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="3">
-        <f>Visit!B293+10</f>
+      <c r="B293">
+        <v>245</v>
+      </c>
+      <c r="C293" s="3">
         <v>41235</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -12081,12 +11775,11 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="3">
-        <f>Visit!B294+10</f>
+      <c r="B294">
+        <v>793</v>
+      </c>
+      <c r="C294" s="3">
         <v>42226</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -12096,12 +11789,11 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="3">
-        <f>Visit!B295+10</f>
+      <c r="B295">
+        <v>828</v>
+      </c>
+      <c r="C295" s="3">
         <v>42805</v>
-      </c>
-      <c r="C295">
-        <v>1</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -12111,12 +11803,11 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="3">
-        <f>Visit!B296+10</f>
+      <c r="B296">
+        <v>67</v>
+      </c>
+      <c r="C296" s="3">
         <v>41868</v>
-      </c>
-      <c r="C296">
-        <v>1</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -12126,12 +11817,11 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="3">
-        <f>Visit!B297+10</f>
+      <c r="B297">
+        <v>788</v>
+      </c>
+      <c r="C297" s="3">
         <v>42305</v>
-      </c>
-      <c r="C297">
-        <v>1</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -12141,12 +11831,11 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="3">
-        <f>Visit!B298+10</f>
+      <c r="B298">
+        <v>56</v>
+      </c>
+      <c r="C298" s="3">
         <v>42837</v>
-      </c>
-      <c r="C298">
-        <v>0</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -12156,12 +11845,11 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="3">
-        <f>Visit!B299+10</f>
+      <c r="B299">
+        <v>138</v>
+      </c>
+      <c r="C299" s="3">
         <v>40848</v>
-      </c>
-      <c r="C299">
-        <v>1</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -12171,12 +11859,11 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="3">
-        <f>Visit!B300+10</f>
+      <c r="B300">
+        <v>942</v>
+      </c>
+      <c r="C300" s="3">
         <v>39471</v>
-      </c>
-      <c r="C300">
-        <v>0</v>
       </c>
       <c r="D300">
         <v>1</v>
